--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_3_35.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_3_35.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3463593.879856742</v>
+        <v>3456576.86496503</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.837800622</v>
+        <v>2264668.837800621</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1169509.511665971</v>
+        <v>1169509.51166597</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8273369.879420795</v>
+        <v>8273369.879420796</v>
       </c>
     </row>
     <row r="11">
@@ -658,22 +658,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>75.988730008072</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>242.2705779337554</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -706,25 +706,25 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -816,22 +816,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>37.83808333974894</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -882,10 +882,10 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>101.7806877295493</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -895,28 +895,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>163.9427735553738</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -946,25 +946,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>94.71675834381719</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1053,10 +1053,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -1065,10 +1065,10 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>161.4185109538487</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1077,7 +1077,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1098,7 +1098,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1110,7 +1110,7 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1119,10 +1119,10 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>94.65568569260694</v>
       </c>
     </row>
     <row r="8">
@@ -1132,28 +1132,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>109.4422623037134</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1180,25 +1180,25 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>160.9271104665245</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1296,16 +1296,16 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>129.0246247964035</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>55.84003136202626</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1347,19 +1347,19 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1372,25 +1372,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710101</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.6830416206831</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417116</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>411.9645167896914</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H11" t="n">
-        <v>305.2872491113178</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274063</v>
+        <v>81.7791350527408</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,16 +1420,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051993</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T11" t="n">
-        <v>208.482788338502</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U11" t="n">
-        <v>251.0785952498011</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V11" t="n">
-        <v>327.752258470135</v>
+        <v>327.7522584701337</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -1438,7 +1438,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560537</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -1466,10 +1466,10 @@
         <v>135.5574116118565</v>
       </c>
       <c r="H12" t="n">
-        <v>94.98542483262919</v>
+        <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014437</v>
+        <v>27.90133207014445</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1499,7 +1499,7 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>138.5070438670631</v>
+        <v>138.5070438670632</v>
       </c>
       <c r="T12" t="n">
         <v>192.9654699154601</v>
@@ -1527,13 +1527,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819374</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -1542,10 +1542,10 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.4935684633777</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>18.53783461872568</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1578,25 +1578,25 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836034</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985775</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>252.1376433238281</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.5229983365911</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>93.31268305691053</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1606,28 +1606,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634807</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710077</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.6830416206831</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722619</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417116</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>411.9645167896925</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H14" t="n">
-        <v>305.2872491113178</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274078</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,25 +1657,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648052002</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T14" t="n">
-        <v>208.482788338502</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U14" t="n">
-        <v>251.0785952498008</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V14" t="n">
-        <v>327.752258470135</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>349.2409687174131</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>369.7311006784691</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560537</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -1703,10 +1703,10 @@
         <v>135.5574116118565</v>
       </c>
       <c r="H15" t="n">
-        <v>94.98542483262919</v>
+        <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014439</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1736,7 +1736,7 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>138.5070438670631</v>
+        <v>138.5070438670632</v>
       </c>
       <c r="T15" t="n">
         <v>192.9654699154601</v>
@@ -1764,28 +1764,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819374</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>15.75208669539913</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182125</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1818,22 +1818,22 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>67.61524188852295</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985775</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.1376433238281</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.5229983365911</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520949</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1864,7 +1864,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
@@ -1943,7 +1943,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2001,25 +2001,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819374</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986279</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>97.92916150940776</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229314</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>148.9138283675362</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2049,28 +2049,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>109.9643524037929</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985775</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>252.1376433238281</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>211.2541671901477</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2080,28 +2080,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634807</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710077</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>354.6830416206831</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722619</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417116</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>411.9645167896916</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H20" t="n">
-        <v>305.2872491113178</v>
+        <v>305.2872491113174</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274117</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2134,22 +2134,22 @@
         <v>132.9503648051989</v>
       </c>
       <c r="T20" t="n">
-        <v>208.482788338502</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U20" t="n">
-        <v>251.0785952497999</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V20" t="n">
-        <v>327.752258470135</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>349.2409687174131</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>369.7311006784691</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560537</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -2180,7 +2180,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2250,7 +2250,7 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>115.5269768002162</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -2289,25 +2289,25 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583894</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985775</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>252.1376433238281</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.5229983365911</v>
+        <v>237.6821551249385</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890373</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2417,7 +2417,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2475,13 +2475,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819374</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182125</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -2490,13 +2490,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>166.4935684633777</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>110.4192454642721</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2526,25 +2526,25 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>85.88996811387943</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
-        <v>252.1376433238281</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890373</v>
+        <v>143.3158222056515</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520949</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2575,7 +2575,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2654,7 +2654,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2712,7 +2712,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -2721,19 +2721,19 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>69.51559224993541</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
         <v>197.9208099836032</v>
@@ -2769,19 +2769,19 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>2.654169196206531</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2955,10 +2955,10 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -2967,7 +2967,7 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3000,25 +3000,25 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
-        <v>212.9016161965996</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>143.3158222056515</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3043,13 +3043,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896912</v>
       </c>
       <c r="H32" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3128,7 +3128,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3186,22 +3186,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3237,25 +3237,25 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>197.9208099836032</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T34" t="n">
-        <v>17.13387053928689</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3438,13 +3438,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3474,25 +3474,25 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>197.9208099836032</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V37" t="n">
-        <v>121.5035593081243</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3559,7 +3559,7 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U38" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498008</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3666,22 +3666,22 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I40" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,19 +3708,19 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>168.0025262783764</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V40" t="n">
-        <v>165.1912380025922</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
@@ -3729,7 +3729,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3897,13 +3897,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -3948,25 +3948,25 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
-        <v>100.6429089205996</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>169.7438101404424</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3997,7 +3997,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
@@ -4076,7 +4076,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4149,10 +4149,10 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4182,28 +4182,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>59.38222533007413</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>93.879166811399</v>
       </c>
     </row>
   </sheetData>
@@ -4306,19 +4306,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>863.1126181035243</v>
+        <v>1857.168914859137</v>
       </c>
       <c r="C2" t="n">
-        <v>863.1126181035243</v>
+        <v>1780.41262192169</v>
       </c>
       <c r="D2" t="n">
-        <v>863.1126181035243</v>
+        <v>1422.14692331494</v>
       </c>
       <c r="E2" t="n">
-        <v>863.1126181035243</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="F2" t="n">
-        <v>452.1267133139167</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G2" t="n">
         <v>207.4089578252748</v>
@@ -4330,13 +4330,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4354,28 +4354,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2697.149091018222</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U2" t="n">
-        <v>2697.149091018222</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="V2" t="n">
-        <v>2366.086203674652</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="W2" t="n">
-        <v>2013.317548404538</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="X2" t="n">
-        <v>1639.851790143458</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="Y2" t="n">
-        <v>1249.712458167646</v>
+        <v>1857.168914859137</v>
       </c>
     </row>
     <row r="3">
@@ -4385,49 +4385,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C3" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E3" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>266.2060027641987</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>670.8219208598706</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417901</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O3" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P3" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4448,10 +4448,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4464,19 +4464,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>222.8791647482714</v>
+        <v>689.9086980046678</v>
       </c>
       <c r="C4" t="n">
-        <v>53.94298182036445</v>
+        <v>520.9725150767609</v>
       </c>
       <c r="D4" t="n">
-        <v>53.94298182036445</v>
+        <v>370.8558756644252</v>
       </c>
       <c r="E4" t="n">
-        <v>53.94298182036445</v>
+        <v>222.942782082032</v>
       </c>
       <c r="F4" t="n">
-        <v>53.94298182036445</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G4" t="n">
         <v>53.94298182036445</v>
@@ -4530,10 +4530,10 @@
         <v>728.1289842064344</v>
       </c>
       <c r="X4" t="n">
-        <v>625.3202087220412</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Y4" t="n">
-        <v>404.5276295785111</v>
+        <v>728.1289842064344</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2072.529454785695</v>
+        <v>999.4901647174279</v>
       </c>
       <c r="C5" t="n">
-        <v>1703.566937845283</v>
+        <v>630.5276477770162</v>
       </c>
       <c r="D5" t="n">
-        <v>1345.301239238533</v>
+        <v>630.5276477770162</v>
       </c>
       <c r="E5" t="n">
-        <v>959.5129866402885</v>
+        <v>630.5276477770162</v>
       </c>
       <c r="F5" t="n">
-        <v>952.5674858910851</v>
+        <v>219.5417429874087</v>
       </c>
       <c r="G5" t="n">
-        <v>534.603677789272</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J5" t="n">
         <v>169.7108380533142</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P5" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q5" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R5" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S5" t="n">
-        <v>2520.971603332393</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="T5" t="n">
-        <v>2520.971603332393</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="U5" t="n">
-        <v>2520.971603332393</v>
+        <v>2443.387305656314</v>
       </c>
       <c r="V5" t="n">
-        <v>2520.971603332393</v>
+        <v>2112.324418312744</v>
       </c>
       <c r="W5" t="n">
-        <v>2168.202948062278</v>
+        <v>1759.555763042629</v>
       </c>
       <c r="X5" t="n">
-        <v>2168.202948062278</v>
+        <v>1386.09000478155</v>
       </c>
       <c r="Y5" t="n">
-        <v>2072.529454785695</v>
+        <v>1386.09000478155</v>
       </c>
     </row>
     <row r="6">
@@ -4643,22 +4643,22 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J6" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K6" t="n">
-        <v>266.2060027641994</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L6" t="n">
-        <v>670.8219208598713</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M6" t="n">
-        <v>1194.968834417902</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N6" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O6" t="n">
         <v>2188.831293537797</v>
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>409.5384547146241</v>
+        <v>222.8791647482714</v>
       </c>
       <c r="C7" t="n">
-        <v>409.5384547146241</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="D7" t="n">
-        <v>409.5384547146241</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="E7" t="n">
-        <v>409.5384547146241</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="F7" t="n">
-        <v>262.6485072167137</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G7" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H7" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I7" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K7" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U7" t="n">
-        <v>409.5384547146241</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V7" t="n">
-        <v>409.5384547146241</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W7" t="n">
-        <v>409.5384547146241</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X7" t="n">
-        <v>409.5384547146241</v>
+        <v>500.1394333084171</v>
       </c>
       <c r="Y7" t="n">
-        <v>409.5384547146241</v>
+        <v>404.5276295785111</v>
       </c>
     </row>
     <row r="8">
@@ -4780,37 +4780,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1363.553390680693</v>
+        <v>554.3221432721093</v>
       </c>
       <c r="C8" t="n">
-        <v>1363.553390680693</v>
+        <v>185.3596263316976</v>
       </c>
       <c r="D8" t="n">
-        <v>1363.553390680693</v>
+        <v>74.81188663097703</v>
       </c>
       <c r="E8" t="n">
-        <v>1363.553390680693</v>
+        <v>74.81188663097703</v>
       </c>
       <c r="F8" t="n">
-        <v>952.5674858910851</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G8" t="n">
-        <v>534.603677789272</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H8" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733131</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4822,34 +4822,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R8" t="n">
         <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T8" t="n">
-        <v>2247.308246834948</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U8" t="n">
-        <v>2247.308246834948</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="V8" t="n">
-        <v>1916.245359491378</v>
+        <v>2057.295728843237</v>
       </c>
       <c r="W8" t="n">
-        <v>1916.245359491378</v>
+        <v>1704.527073573123</v>
       </c>
       <c r="X8" t="n">
-        <v>1753.692722656504</v>
+        <v>1331.061315312043</v>
       </c>
       <c r="Y8" t="n">
-        <v>1363.553390680693</v>
+        <v>940.9219833362311</v>
       </c>
     </row>
     <row r="9">
@@ -4880,28 +4880,28 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O9" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P9" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>184.2708856551155</v>
+        <v>279.3468541648868</v>
       </c>
       <c r="C10" t="n">
-        <v>184.2708856551155</v>
+        <v>279.3468541648868</v>
       </c>
       <c r="D10" t="n">
-        <v>53.94298182036445</v>
+        <v>279.3468541648868</v>
       </c>
       <c r="E10" t="n">
-        <v>53.94298182036445</v>
+        <v>279.3468541648868</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036445</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
         <v>382.716901165821</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502502</v>
+        <v>529.60403885025</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594902</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="U10" t="n">
-        <v>438.9553738610024</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="V10" t="n">
-        <v>184.2708856551155</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="W10" t="n">
-        <v>184.2708856551155</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="X10" t="n">
-        <v>184.2708856551155</v>
+        <v>500.139433308417</v>
       </c>
       <c r="Y10" t="n">
-        <v>184.2708856551155</v>
+        <v>279.3468541648868</v>
       </c>
     </row>
     <row r="11">
@@ -5017,7 +5017,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550606</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C11" t="n">
         <v>2059.358867610191</v>
@@ -5026,7 +5026,7 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F11" t="n">
         <v>904.3190116155888</v>
@@ -5035,58 +5035,58 @@
         <v>488.193237080547</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028594</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M11" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.70982261913</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O11" t="n">
-        <v>3889.732883643327</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899131</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.627437207834</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014297</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231267</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T11" t="n">
-        <v>4515.972600141871</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.357857465305</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.294970121733</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851619</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590539</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614728</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="12">
@@ -5117,28 +5117,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028594</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
-        <v>138.7081686256437</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K12" t="n">
-        <v>287.7778528277039</v>
+        <v>549.598437470156</v>
       </c>
       <c r="L12" t="n">
-        <v>901.674922584593</v>
+        <v>1163.495507227045</v>
       </c>
       <c r="M12" t="n">
-        <v>1670.043068977055</v>
+        <v>1470.815640507006</v>
       </c>
       <c r="N12" t="n">
-        <v>1999.905696641088</v>
+        <v>2051.878056918009</v>
       </c>
       <c r="O12" t="n">
-        <v>2279.445761859786</v>
+        <v>2331.418122136706</v>
       </c>
       <c r="P12" t="n">
-        <v>2484.468242641995</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q12" t="n">
         <v>2623.573505376138</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>284.1174986139258</v>
+        <v>416.2699138005285</v>
       </c>
       <c r="C13" t="n">
-        <v>284.1174986139258</v>
+        <v>247.3337308726216</v>
       </c>
       <c r="D13" t="n">
-        <v>284.1174986139258</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E13" t="n">
-        <v>284.1174986139258</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F13" t="n">
-        <v>284.1174986139258</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G13" t="n">
-        <v>115.9421769337462</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H13" t="n">
-        <v>97.21709146028594</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028594</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J13" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K13" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471196</v>
+        <v>779.0639759471189</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O13" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P13" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q13" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S13" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T13" t="n">
-        <v>1298.996260473455</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U13" t="n">
-        <v>1009.867621687013</v>
+        <v>986.0022165609662</v>
       </c>
       <c r="V13" t="n">
-        <v>755.1831334811263</v>
+        <v>731.3177283550793</v>
       </c>
       <c r="W13" t="n">
-        <v>465.7659634441656</v>
+        <v>731.3177283550793</v>
       </c>
       <c r="X13" t="n">
-        <v>465.7659634441656</v>
+        <v>637.0624929440586</v>
       </c>
       <c r="Y13" t="n">
-        <v>465.7659634441656</v>
+        <v>416.2699138005285</v>
       </c>
     </row>
     <row r="14">
@@ -5254,19 +5254,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550604</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C14" t="n">
-        <v>2059.358867610193</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155899</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G14" t="n">
         <v>488.193237080547</v>
@@ -5275,55 +5275,55 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028579</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823783</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514097</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795209</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M14" t="n">
-        <v>2388.164701515099</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619131</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O14" t="n">
-        <v>3889.732883643327</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.63284889913</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.627437207833</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014296</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T14" t="n">
-        <v>4515.972600141869</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.357857465303</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.294970121732</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851618</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590538</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614726</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="15">
@@ -5354,25 +5354,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028593</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>263.5382936126484</v>
+        <v>233.7852434110089</v>
       </c>
       <c r="K15" t="n">
-        <v>674.4285624571613</v>
+        <v>644.6755122555215</v>
       </c>
       <c r="L15" t="n">
-        <v>921.1936903636256</v>
+        <v>891.4406401619856</v>
       </c>
       <c r="M15" t="n">
-        <v>1228.513823643588</v>
+        <v>1198.760773441947</v>
       </c>
       <c r="N15" t="n">
-        <v>1558.376451307621</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O15" t="n">
-        <v>1837.916516526318</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P15" t="n">
         <v>2328.464088060424</v>
@@ -5412,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>263.2449295548431</v>
+        <v>1141.200876391121</v>
       </c>
       <c r="C16" t="n">
-        <v>247.3337308726218</v>
+        <v>972.2646934632137</v>
       </c>
       <c r="D16" t="n">
-        <v>97.21709146028593</v>
+        <v>822.1480540508779</v>
       </c>
       <c r="E16" t="n">
-        <v>97.21709146028593</v>
+        <v>674.2349604684848</v>
       </c>
       <c r="F16" t="n">
-        <v>97.21709146028593</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="G16" t="n">
-        <v>97.21709146028593</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H16" t="n">
-        <v>97.21709146028593</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028593</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J16" t="n">
         <v>109.5997839241957</v>
@@ -5442,10 +5442,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
@@ -5454,34 +5454,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P16" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q16" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S16" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T16" t="n">
-        <v>1498.916270557903</v>
+        <v>1430.618046428081</v>
       </c>
       <c r="U16" t="n">
-        <v>1209.787631771461</v>
+        <v>1430.618046428081</v>
       </c>
       <c r="V16" t="n">
-        <v>955.1031435655739</v>
+        <v>1430.618046428081</v>
       </c>
       <c r="W16" t="n">
-        <v>665.6859735286132</v>
+        <v>1141.200876391121</v>
       </c>
       <c r="X16" t="n">
-        <v>665.6859735286132</v>
+        <v>1141.200876391121</v>
       </c>
       <c r="Y16" t="n">
-        <v>444.893394385083</v>
+        <v>1141.200876391121</v>
       </c>
     </row>
     <row r="17">
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550604</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C17" t="n">
-        <v>2059.358867610193</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.093169003443</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405199</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155909</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G17" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028593</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M17" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O17" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T17" t="n">
-        <v>4515.972600141869</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.357857465303</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.294970121732</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851618</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590538</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614726</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="18">
@@ -5570,49 +5570,49 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>987.4312590525784</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C18" t="n">
-        <v>812.9782297714514</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D18" t="n">
-        <v>664.0438201102002</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E18" t="n">
-        <v>504.8063651047446</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F18" t="n">
         <v>358.2718071316295</v>
       </c>
       <c r="G18" t="n">
-        <v>221.3451287358149</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H18" t="n">
         <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>97.21709146028593</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>138.7081686256436</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K18" t="n">
-        <v>287.7778528277034</v>
+        <v>644.6755122555218</v>
       </c>
       <c r="L18" t="n">
-        <v>709.4934589365137</v>
+        <v>891.4406401619858</v>
       </c>
       <c r="M18" t="n">
-        <v>1016.813592216475</v>
+        <v>1198.760773441947</v>
       </c>
       <c r="N18" t="n">
-        <v>1346.676219880508</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O18" t="n">
-        <v>2016.139981183167</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P18" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q18" t="n">
         <v>2623.573505376138</v>
@@ -5630,7 +5630,7 @@
         <v>2060.647860003077</v>
       </c>
       <c r="V18" t="n">
-        <v>1825.495751771335</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W18" t="n">
         <v>1571.258395043133</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>662.379575297158</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C19" t="n">
-        <v>493.443392369251</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D19" t="n">
-        <v>394.5250474102533</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E19" t="n">
-        <v>394.5250474102533</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F19" t="n">
-        <v>247.6350999123428</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G19" t="n">
-        <v>247.6350999123428</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H19" t="n">
-        <v>97.21709146028593</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028593</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J19" t="n">
         <v>109.5997839241957</v>
       </c>
       <c r="K19" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799362</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471189</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N19" t="n">
-        <v>1049.608084974666</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O19" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P19" t="n">
         <v>1460.082827585746</v>
       </c>
       <c r="Q19" t="n">
-        <v>1498.916270557901</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
-        <v>1387.841167119727</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
-        <v>1387.841167119727</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T19" t="n">
-        <v>1387.841167119727</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U19" t="n">
-        <v>1098.712528333285</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V19" t="n">
-        <v>844.0280401273978</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W19" t="n">
-        <v>844.0280401273978</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="X19" t="n">
-        <v>844.0280401273978</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y19" t="n">
-        <v>844.0280401273978</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="20">
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550604</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155897</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805475</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822467</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I20" t="n">
-        <v>97.2170914602859</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514097</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795208</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M20" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O20" t="n">
-        <v>3889.732883643325</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T20" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.357857465303</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.294970121732</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851618</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590538</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614726</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="21">
@@ -5828,28 +5828,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>263.5382936126483</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K21" t="n">
-        <v>412.6079778147082</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L21" t="n">
-        <v>659.3731057211724</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M21" t="n">
-        <v>1406.737288300438</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N21" t="n">
-        <v>1736.59991596447</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O21" t="n">
-        <v>2016.139981183167</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P21" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q21" t="n">
         <v>2623.573505376138</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>213.9110074201002</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C22" t="n">
-        <v>213.9110074201002</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D22" t="n">
-        <v>213.9110074201002</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E22" t="n">
-        <v>213.9110074201002</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F22" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G22" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H22" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I22" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J22" t="n">
-        <v>109.5997839241956</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K22" t="n">
-        <v>259.785188168807</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799362</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471189</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N22" t="n">
-        <v>1049.608084974666</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O22" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P22" t="n">
         <v>1460.082827585746</v>
       </c>
       <c r="Q22" t="n">
-        <v>1498.916270557901</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R22" t="n">
-        <v>1498.916270557901</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S22" t="n">
-        <v>1498.916270557901</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T22" t="n">
-        <v>1275.130855347407</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U22" t="n">
-        <v>986.0022165609654</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V22" t="n">
-        <v>731.3177283550784</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="W22" t="n">
-        <v>441.9005583181177</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X22" t="n">
-        <v>213.9110074201002</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y22" t="n">
-        <v>213.9110074201002</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="23">
@@ -5965,37 +5965,37 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550604</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610193</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003443</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405199</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155909</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823788</v>
+        <v>365.8813331823783</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514086</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M23" t="n">
         <v>2388.164701515097</v>
@@ -6004,37 +6004,37 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O23" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T23" t="n">
-        <v>4515.972600141869</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465303</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121732</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851618</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590538</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614726</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="24">
@@ -6065,25 +6065,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>233.7852434110083</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K24" t="n">
-        <v>644.675512255521</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L24" t="n">
-        <v>891.4406401619851</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M24" t="n">
-        <v>1198.760773441947</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N24" t="n">
-        <v>1528.62340110598</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O24" t="n">
-        <v>1808.163466324677</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P24" t="n">
         <v>2328.464088060424</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>527.0436439308538</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C25" t="n">
-        <v>527.0436439308538</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D25" t="n">
-        <v>376.927004518518</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E25" t="n">
-        <v>376.927004518518</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F25" t="n">
-        <v>376.927004518518</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G25" t="n">
-        <v>208.7516828383385</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H25" t="n">
-        <v>208.7516828383385</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J25" t="n">
-        <v>109.5997839241956</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K25" t="n">
-        <v>259.785188168807</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799362</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471189</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N25" t="n">
-        <v>1049.608084974666</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O25" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P25" t="n">
         <v>1460.082827585746</v>
       </c>
       <c r="Q25" t="n">
-        <v>1498.916270557901</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R25" t="n">
-        <v>1498.916270557901</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S25" t="n">
-        <v>1498.916270557901</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T25" t="n">
-        <v>1412.158727008528</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U25" t="n">
-        <v>1412.158727008528</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V25" t="n">
-        <v>1157.474238802641</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W25" t="n">
-        <v>1157.474238802641</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="X25" t="n">
-        <v>929.4846879046239</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y25" t="n">
-        <v>708.6921087610937</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="26">
@@ -6205,40 +6205,40 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805466</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H26" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M26" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O26" t="n">
         <v>3889.732883643323</v>
@@ -6259,16 +6259,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y26" t="n">
         <v>2814.921224614724</v>
@@ -6305,25 +6305,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K27" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L27" t="n">
-        <v>534.5429807341673</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M27" t="n">
-        <v>1247.466478653857</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N27" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O27" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P27" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q27" t="n">
         <v>2623.573505376138</v>
@@ -6360,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>465.7659634441654</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="C28" t="n">
-        <v>465.7659634441654</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="D28" t="n">
-        <v>465.7659634441654</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="E28" t="n">
-        <v>317.8528698617723</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="F28" t="n">
-        <v>317.8528698617723</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G28" t="n">
-        <v>317.8528698617723</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H28" t="n">
-        <v>167.4348614097156</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I28" t="n">
         <v>97.21709146028584</v>
@@ -6408,28 +6408,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R28" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S28" t="n">
-        <v>1298.996260473455</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T28" t="n">
-        <v>1298.996260473455</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="U28" t="n">
-        <v>1009.867621687013</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="V28" t="n">
-        <v>755.183133481126</v>
+        <v>1185.240178049213</v>
       </c>
       <c r="W28" t="n">
-        <v>465.7659634441654</v>
+        <v>895.8230080122524</v>
       </c>
       <c r="X28" t="n">
-        <v>465.7659634441654</v>
+        <v>667.8334571142351</v>
       </c>
       <c r="Y28" t="n">
-        <v>465.7659634441654</v>
+        <v>447.040877970705</v>
       </c>
     </row>
     <row r="29">
@@ -6454,34 +6454,34 @@
         <v>904.319011615589</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822463</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J29" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M29" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O29" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q29" t="n">
         <v>4801.62743720783</v>
@@ -6542,25 +6542,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K30" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L30" t="n">
-        <v>534.5429807341673</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M30" t="n">
-        <v>1302.911127126629</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N30" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O30" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P30" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q30" t="n">
         <v>2623.573505376138</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>3907.603135363461</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C31" t="n">
-        <v>3907.603135363461</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D31" t="n">
-        <v>3757.486495951126</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E31" t="n">
-        <v>3609.573402368732</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F31" t="n">
-        <v>3609.573402368732</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G31" t="n">
-        <v>3609.573402368732</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H31" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I31" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J31" t="n">
-        <v>3471.538086380585</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K31" t="n">
-        <v>3621.723490625197</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L31" t="n">
-        <v>3869.435535636326</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M31" t="n">
-        <v>4141.002278403509</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N31" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O31" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P31" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q31" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R31" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S31" t="n">
-        <v>4860.854573014292</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T31" t="n">
-        <v>4645.802435441969</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U31" t="n">
-        <v>4645.802435441969</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V31" t="n">
-        <v>4645.802435441969</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W31" t="n">
-        <v>4356.385265405009</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="X31" t="n">
-        <v>4128.395714506992</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y31" t="n">
-        <v>3907.603135363461</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="32">
@@ -6682,43 +6682,43 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805465</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823785</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M32" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O32" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q32" t="n">
         <v>4801.62743720783</v>
@@ -6788,7 +6788,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M33" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N33" t="n">
         <v>1558.376451307619</v>
@@ -6797,10 +6797,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P33" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q33" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R33" t="n">
         <v>2623.573505376138</v>
@@ -6834,19 +6834,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>879.2482765610114</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C34" t="n">
-        <v>710.3120936331045</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D34" t="n">
-        <v>560.1954542207687</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E34" t="n">
-        <v>412.2823606383756</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F34" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G34" t="n">
         <v>97.21709146028584</v>
@@ -6885,25 +6885,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S34" t="n">
-        <v>1298.996260473455</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T34" t="n">
-        <v>1281.689320534781</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U34" t="n">
-        <v>1281.689320534781</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V34" t="n">
-        <v>1281.689320534781</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W34" t="n">
-        <v>1281.689320534781</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X34" t="n">
-        <v>1281.689320534781</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y34" t="n">
-        <v>1060.896741391251</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="35">
@@ -6916,43 +6916,43 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E35" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155885</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805465</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822457</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823783</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M35" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O35" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
         <v>4454.632848899127</v>
@@ -6970,16 +6970,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y35" t="n">
         <v>2814.921224614724</v>
@@ -7016,28 +7016,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J36" t="n">
-        <v>251.1748338338029</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K36" t="n">
-        <v>400.2445180358627</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L36" t="n">
-        <v>1014.141587792751</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M36" t="n">
-        <v>1321.461721072713</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N36" t="n">
-        <v>1651.324348736746</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O36" t="n">
-        <v>2320.788110039405</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P36" t="n">
-        <v>2525.810590821615</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q36" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R36" t="n">
         <v>2623.573505376138</v>
@@ -7071,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>376.9270045185177</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C37" t="n">
-        <v>376.9270045185177</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D37" t="n">
-        <v>376.9270045185177</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E37" t="n">
-        <v>376.9270045185177</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F37" t="n">
-        <v>376.9270045185177</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G37" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H37" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I37" t="n">
         <v>97.21709146028584</v>
@@ -7122,25 +7122,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S37" t="n">
-        <v>1298.996260473455</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T37" t="n">
-        <v>1298.996260473455</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U37" t="n">
-        <v>1009.867621687013</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V37" t="n">
-        <v>887.1367536990085</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W37" t="n">
-        <v>597.7195836620479</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X37" t="n">
-        <v>597.7195836620479</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y37" t="n">
-        <v>376.9270045185177</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="38">
@@ -7150,13 +7150,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E38" t="n">
         <v>1315.304916405196</v>
@@ -7168,7 +7168,7 @@
         <v>488.193237080547</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I38" t="n">
         <v>97.21709146028584</v>
@@ -7207,19 +7207,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="39">
@@ -7256,25 +7256,25 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K39" t="n">
-        <v>412.6079778147081</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L39" t="n">
-        <v>659.3731057211721</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M39" t="n">
-        <v>966.6932390011339</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N39" t="n">
-        <v>1517.99338900868</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O39" t="n">
-        <v>1797.533454227377</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P39" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q39" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R39" t="n">
         <v>2623.573505376138</v>
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>821.846685011157</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="C40" t="n">
-        <v>821.846685011157</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="D40" t="n">
-        <v>671.7300455988212</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="E40" t="n">
-        <v>523.8169520164281</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="F40" t="n">
-        <v>376.9270045185177</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="G40" t="n">
-        <v>208.7516828383384</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H40" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I40" t="n">
         <v>97.21709146028584</v>
@@ -7356,28 +7356,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R40" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S40" t="n">
-        <v>1498.916270557902</v>
+        <v>1218.141645626418</v>
       </c>
       <c r="T40" t="n">
-        <v>1498.916270557902</v>
+        <v>994.3562304159243</v>
       </c>
       <c r="U40" t="n">
-        <v>1498.916270557902</v>
+        <v>705.2275916294825</v>
       </c>
       <c r="V40" t="n">
-        <v>1332.056434191648</v>
+        <v>705.2275916294825</v>
       </c>
       <c r="W40" t="n">
-        <v>1042.639264154687</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="X40" t="n">
-        <v>1042.639264154687</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="Y40" t="n">
-        <v>821.846685011157</v>
+        <v>415.8104215925219</v>
       </c>
     </row>
     <row r="41">
@@ -7387,13 +7387,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E41" t="n">
         <v>1315.304916405196</v>
@@ -7405,7 +7405,7 @@
         <v>488.193237080547</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I41" t="n">
         <v>97.21709146028584</v>
@@ -7414,10 +7414,10 @@
         <v>365.8813331823787</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M41" t="n">
         <v>2388.164701515097</v>
@@ -7444,19 +7444,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y41" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="42">
@@ -7490,22 +7490,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J42" t="n">
-        <v>233.7852434110089</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K42" t="n">
-        <v>644.6755122555215</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L42" t="n">
-        <v>891.4406401619856</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M42" t="n">
-        <v>1198.760773441947</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N42" t="n">
-        <v>1528.62340110598</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O42" t="n">
-        <v>1808.163466324677</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P42" t="n">
         <v>2328.464088060424</v>
@@ -7545,10 +7545,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>416.2699138005285</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C43" t="n">
-        <v>247.3337308726216</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D43" t="n">
         <v>97.21709146028584</v>
@@ -7596,25 +7596,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S43" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T43" t="n">
-        <v>1397.256766597701</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U43" t="n">
-        <v>1108.128127811259</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V43" t="n">
-        <v>1108.128127811259</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W43" t="n">
-        <v>818.7109577742983</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X43" t="n">
-        <v>818.7109577742983</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y43" t="n">
-        <v>597.9183786307682</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="44">
@@ -7627,46 +7627,46 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F44" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805466</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H44" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L44" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M44" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O44" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q44" t="n">
         <v>4801.62743720783</v>
@@ -7681,16 +7681,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y44" t="n">
         <v>2814.921224614724</v>
@@ -7736,7 +7736,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M45" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N45" t="n">
         <v>1558.376451307619</v>
@@ -7782,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C46" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D46" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E46" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F46" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G46" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H46" t="n">
         <v>97.21709146028584</v>
@@ -7830,28 +7830,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R46" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S46" t="n">
-        <v>1498.916270557902</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T46" t="n">
-        <v>1275.130855347408</v>
+        <v>964.135741824786</v>
       </c>
       <c r="U46" t="n">
-        <v>986.0022165609664</v>
+        <v>964.135741824786</v>
       </c>
       <c r="V46" t="n">
-        <v>986.0022165609664</v>
+        <v>709.4512536188992</v>
       </c>
       <c r="W46" t="n">
-        <v>696.5850465240057</v>
+        <v>420.0340835819385</v>
       </c>
       <c r="X46" t="n">
-        <v>636.6030007360521</v>
+        <v>192.0445326839212</v>
       </c>
       <c r="Y46" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
   </sheetData>
@@ -8057,10 +8057,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>221.0467526719077</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8078,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747073</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8294,10 +8294,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K6" t="n">
-        <v>145.0294169142014</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
@@ -8309,7 +8309,7 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O6" t="n">
-        <v>393.8623192767295</v>
+        <v>350.4438349360588</v>
       </c>
       <c r="P6" t="n">
         <v>318.4627686399372</v>
@@ -8531,7 +8531,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8543,7 +8543,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>435.923890002883</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
@@ -8552,7 +8552,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747166</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8771,16 +8771,16 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M12" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>253.7371603504751</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
@@ -8789,10 +8789,10 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>52.49733361304968</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445207</v>
+        <v>34.7842838544522</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9005,7 +9005,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>126.0910353404088</v>
+        <v>96.03744927814688</v>
       </c>
       <c r="K15" t="n">
         <v>264.4652370125786</v>
@@ -9023,13 +9023,13 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>288.4091825776733</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
-        <v>34.7842838544521</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9242,13 +9242,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>234.4116509503169</v>
       </c>
       <c r="L18" t="n">
-        <v>176.7176547498445</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -9257,16 +9257,16 @@
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9409,7 +9409,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M20" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928327</v>
       </c>
       <c r="N20" t="n">
         <v>437.3469244119842</v>
@@ -9482,13 +9482,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>444.4889386861651</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
@@ -9497,13 +9497,13 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9716,7 +9716,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>96.0374492781462</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
         <v>264.4652370125786</v>
@@ -9734,13 +9734,13 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9898,7 +9898,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9953,31 +9953,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>409.7003683229582</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10190,28 +10190,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>423.3376789165117</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
         <v>34.78428385445218</v>
@@ -10445,13 +10445,13 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>277.6717966208067</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10664,13 +10664,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>113.6026921294539</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
@@ -10679,16 +10679,16 @@
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10831,7 +10831,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M38" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928324</v>
       </c>
       <c r="N38" t="n">
         <v>437.3469244119842</v>
@@ -10846,7 +10846,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10904,7 +10904,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -10913,19 +10913,19 @@
         <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>223.6742649934478</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11062,7 +11062,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
-        <v>324.1454125711646</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L41" t="n">
         <v>417.6612145504504</v>
@@ -11083,7 +11083,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11138,7 +11138,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>96.03744927814688</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
         <v>264.4652370125786</v>
@@ -11156,7 +11156,7 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
@@ -11305,7 +11305,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928324</v>
       </c>
       <c r="N44" t="n">
         <v>437.3469244119842</v>
@@ -11393,13 +11393,13 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>288.4091825776754</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23415,28 +23415,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.246821098628</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182125</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465693</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229314</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
-        <v>130.3759937488106</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
-        <v>110.4192454642721</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,13 +23463,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037929</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583894</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23478,13 +23478,13 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890373</v>
+        <v>132.3969723321266</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520949</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23652,28 +23652,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>151.4947344032288</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465693</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229314</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.4935684633777</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9138283675362</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>110.4192454642721</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,28 +23700,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037929</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836033</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583894</v>
+        <v>153.9323191698663</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890373</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23889,28 +23889,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>50.68631150880471</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465693</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>166.4935684633777</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
-        <v>110.4192454642721</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,13 +23937,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836034</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583894</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23952,13 +23952,13 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.5229983365911</v>
+        <v>75.26883114644332</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890373</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520949</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24126,28 +24126,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819374</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986279</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182125</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465693</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>29.89407122271516</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>166.4935684633777</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
-        <v>148.9138283675362</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
-        <v>110.4192454642721</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,10 +24174,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>109.9643524037929</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836034</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24186,16 +24186,16 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>48.8408432116525</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520949</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24363,28 +24363,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986279</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465693</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229314</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
-        <v>148.9138283675362</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,28 +24411,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>109.9643524037929</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836034</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>135.6575929445099</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2373523985775</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.5229983365911</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>82.39383318338568</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24600,7 +24600,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
@@ -24609,19 +24609,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
-        <v>40.90365321433659</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24657,19 +24657,19 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>249.4834741276215</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24843,10 +24843,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
@@ -24855,7 +24855,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I31" t="n">
         <v>110.419245464272</v>
@@ -24888,25 +24888,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>8.645944861789616</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>82.39383318338568</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -25074,22 +25074,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H34" t="n">
         <v>148.9138283675361</v>
@@ -25125,25 +25125,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T34" t="n">
-        <v>204.4136905191024</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25326,13 +25326,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H37" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25362,25 +25362,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T37" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>130.6340840157037</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -25554,22 +25554,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,19 +25596,19 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>197.9208099836032</v>
+        <v>29.91828370522688</v>
       </c>
       <c r="T40" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>86.94640532123583</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25617,7 +25617,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -25785,13 +25785,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
@@ -25836,25 +25836,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>120.9046521377897</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>82.39383318338562</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -26037,10 +26037,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I46" t="n">
         <v>110.419245464272</v>
@@ -26070,28 +26070,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>166.327430058963</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>124.7054865406958</v>
       </c>
     </row>
   </sheetData>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>705687.6684372853</v>
+        <v>705687.6684372856</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>705687.6684372855</v>
+        <v>705687.6684372856</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>705687.6684372855</v>
+        <v>705687.6684372856</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>705687.6684372855</v>
+        <v>705687.6684372856</v>
       </c>
     </row>
     <row r="9">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>705687.6684372855</v>
+        <v>705687.6684372856</v>
       </c>
     </row>
     <row r="11">
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>718411.5486312478</v>
+      </c>
+      <c r="C2" t="n">
+        <v>718411.5486312477</v>
+      </c>
+      <c r="D2" t="n">
         <v>718411.5486312479</v>
       </c>
-      <c r="C2" t="n">
-        <v>718411.5486312479</v>
-      </c>
-      <c r="D2" t="n">
-        <v>718411.5486312478</v>
-      </c>
       <c r="E2" t="n">
-        <v>684300.8545409909</v>
+        <v>684300.8545409903</v>
       </c>
       <c r="F2" t="n">
+        <v>684300.8545409902</v>
+      </c>
+      <c r="G2" t="n">
+        <v>684300.8545409902</v>
+      </c>
+      <c r="H2" t="n">
         <v>684300.8545409903</v>
       </c>
-      <c r="G2" t="n">
-        <v>684300.8545409909</v>
-      </c>
-      <c r="H2" t="n">
-        <v>684300.8545409905</v>
-      </c>
       <c r="I2" t="n">
-        <v>684300.8545409907</v>
+        <v>684300.8545409899</v>
       </c>
       <c r="J2" t="n">
+        <v>684300.8545409903</v>
+      </c>
+      <c r="K2" t="n">
         <v>684300.8545409901</v>
       </c>
-      <c r="K2" t="n">
-        <v>684300.8545409899</v>
-      </c>
       <c r="L2" t="n">
-        <v>684300.8545409899</v>
+        <v>684300.85454099</v>
       </c>
       <c r="M2" t="n">
-        <v>684300.8545409905</v>
+        <v>684300.8545409902</v>
       </c>
       <c r="N2" t="n">
         <v>684300.8545409905</v>
       </c>
       <c r="O2" t="n">
-        <v>684300.8545409905</v>
+        <v>684300.8545409904</v>
       </c>
       <c r="P2" t="n">
-        <v>684300.8545409901</v>
+        <v>684300.8545409902</v>
       </c>
     </row>
     <row r="3">
@@ -26374,10 +26374,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.036476897</v>
+        <v>525160.0364768959</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>1.797263848857256e-10</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925927</v>
+        <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338374</v>
+        <v>134801.0152338371</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26426,19 +26426,19 @@
         <v>165632.8677865244</v>
       </c>
       <c r="E4" t="n">
-        <v>22174.6075868705</v>
+        <v>22174.60758687077</v>
       </c>
       <c r="F4" t="n">
-        <v>22174.60758687058</v>
+        <v>22174.60758687071</v>
       </c>
       <c r="G4" t="n">
-        <v>22174.60758687067</v>
+        <v>22174.60758687071</v>
       </c>
       <c r="H4" t="n">
-        <v>22174.60758687059</v>
+        <v>22174.60758687071</v>
       </c>
       <c r="I4" t="n">
-        <v>22174.60758687067</v>
+        <v>22174.60758687071</v>
       </c>
       <c r="J4" t="n">
         <v>22174.60758687071</v>
@@ -26456,7 +26456,7 @@
         <v>22174.60758687071</v>
       </c>
       <c r="O4" t="n">
-        <v>22174.60758687071</v>
+        <v>22174.6075868707</v>
       </c>
       <c r="P4" t="n">
         <v>22174.60758687071</v>
@@ -26472,34 +26472,34 @@
         <v>82859.07806340946</v>
       </c>
       <c r="C5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340947</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340947</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871671</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871669</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="G5" t="n">
-        <v>91987.32594871668</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="H5" t="n">
-        <v>91987.32594871665</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="I5" t="n">
-        <v>91987.32594871665</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="J5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="K5" t="n">
         <v>91987.32594871662</v>
       </c>
       <c r="L5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="M5" t="n">
         <v>91987.32594871664</v>
@@ -26511,7 +26511,7 @@
         <v>91987.32594871664</v>
       </c>
       <c r="P5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-120048.2764332304</v>
+        <v>-120048.2764332306</v>
       </c>
       <c r="C6" t="n">
-        <v>469919.6027813141</v>
+        <v>469919.6027813139</v>
       </c>
       <c r="D6" t="n">
         <v>469919.6027813141</v>
       </c>
       <c r="E6" t="n">
-        <v>44978.88452850674</v>
+        <v>44004.29326878538</v>
       </c>
       <c r="F6" t="n">
-        <v>570138.9210054033</v>
+        <v>569164.329745681</v>
       </c>
       <c r="G6" t="n">
-        <v>570138.9210054039</v>
+        <v>569164.3297456813</v>
       </c>
       <c r="H6" t="n">
-        <v>570138.9210054035</v>
+        <v>569164.3297456814</v>
       </c>
       <c r="I6" t="n">
-        <v>570138.9210054034</v>
+        <v>569164.3297456809</v>
       </c>
       <c r="J6" t="n">
-        <v>393715.7018128101</v>
+        <v>392741.1105530884</v>
       </c>
       <c r="K6" t="n">
-        <v>570138.9210054026</v>
+        <v>569164.3297456811</v>
       </c>
       <c r="L6" t="n">
-        <v>570138.9210054026</v>
+        <v>569164.329745681</v>
       </c>
       <c r="M6" t="n">
-        <v>435337.9057715659</v>
+        <v>434363.3145118442</v>
       </c>
       <c r="N6" t="n">
-        <v>570138.9210054033</v>
+        <v>569164.3297456816</v>
       </c>
       <c r="O6" t="n">
-        <v>570138.9210054033</v>
+        <v>569164.3297456815</v>
       </c>
       <c r="P6" t="n">
-        <v>570138.9210054029</v>
+        <v>569164.3297456813</v>
       </c>
     </row>
   </sheetData>
@@ -26740,34 +26740,34 @@
         <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
+        <v>377.7436642170867</v>
+      </c>
+      <c r="D3" t="n">
         <v>377.7436642170866</v>
       </c>
-      <c r="D3" t="n">
-        <v>377.7436642170867</v>
-      </c>
       <c r="E3" t="n">
-        <v>830.3824054541011</v>
+        <v>830.3824054541001</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541009</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="K3" t="n">
         <v>830.3824054541002</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="M3" t="n">
         <v>830.3824054541003</v>
@@ -26779,7 +26779,7 @@
         <v>830.3824054541003</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
     </row>
     <row r="4">
@@ -26792,25 +26792,25 @@
         <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="E4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="F4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="G4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="H4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="I4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="J4" t="n">
         <v>1215.213643253573</v>
@@ -26968,10 +26968,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370144</v>
+        <v>452.6387412370134</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990186</v>
+        <v>540.9263704990174</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545551</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990186</v>
+        <v>540.9263704990174</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990186</v>
+        <v>540.9263704990174</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,22 +27378,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>289.2841617629356</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>171.5135920870395</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>323.9227727643571</v>
@@ -27426,25 +27426,25 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27536,22 +27536,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>141.9938968421883</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>156.1708888417951</v>
@@ -27602,10 +27602,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>123.9289676594879</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27615,28 +27615,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>249.8413964654212</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27663,28 +27663,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>291.5211803122364</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27773,10 +27773,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -27785,10 +27785,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>5.891291305202174</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
         <v>156.1708888417951</v>
@@ -27797,7 +27797,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27818,10 +27818,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -27830,7 +27830,7 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -27839,10 +27839,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>123.9289676594879</v>
       </c>
     </row>
     <row r="8">
@@ -27852,28 +27852,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>245.2407793169696</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,22 +27903,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>208.8039902119445</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28016,16 +28016,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>19.59084822180881</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>89.58101666090499</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>156.1708888417951</v>
@@ -28034,7 +28034,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28058,7 +28058,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -28067,19 +28067,19 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28149,7 +28149,7 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>-5.921888138604908e-14</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -28158,7 +28158,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>-1.287209419513539e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -28247,76 +28247,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>-1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>-1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>-1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>-1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>-1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>-1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>-1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>-1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>-1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>-1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>-1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="N13" t="n">
-        <v>-1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>-1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>-1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>-1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>-1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>-1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>-1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>-1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>-1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>-1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>-1.287209419513539e-13</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>-1.287209419513539e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -28326,28 +28326,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-1.212659602363904e-13</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>-1.212659602363904e-13</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>-1.212659602363904e-13</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>-1.212659602363904e-13</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>-1.212659602363904e-13</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>-1.212659602363904e-13</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>-1.212659602363904e-13</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>-1.212659602363904e-13</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28377,25 +28377,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>-1.212659602363904e-13</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>-1.212659602363904e-13</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>-1.212659602363904e-13</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>-1.212659602363904e-13</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>-1.212659602363904e-13</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>-1.212659602363904e-13</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>-1.212659602363904e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -28484,76 +28484,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-1.212659602363904e-13</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>-1.212659602363904e-13</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>-1.212659602363904e-13</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>-1.212659602363904e-13</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>-1.212659602363904e-13</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>-1.212659602363904e-13</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>-1.212659602363904e-13</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>-1.212659602363904e-13</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>-1.212659602363904e-13</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>-1.212659602363904e-13</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>-1.212659602363904e-13</v>
+        <v>0</v>
       </c>
       <c r="M16" t="n">
-        <v>-1.212659602363904e-13</v>
+        <v>0</v>
       </c>
       <c r="N16" t="n">
-        <v>-1.212659602363904e-13</v>
+        <v>0</v>
       </c>
       <c r="O16" t="n">
-        <v>-1.212659602363904e-13</v>
+        <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>-1.212659602363904e-13</v>
+        <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>-1.212659602363904e-13</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>-1.212659602363904e-13</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>-1.212659602363904e-13</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>-1.212659602363904e-13</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>-1.212659602363904e-13</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>-1.212659602363904e-13</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>-1.212659602363904e-13</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>-1.212659602363904e-13</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>-1.212659602363904e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -28721,76 +28721,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-1.212659602363904e-13</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>-1.212659602363904e-13</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>-1.212659602363904e-13</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>-1.212659602363904e-13</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>-1.212659602363904e-13</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>-1.212659602363904e-13</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>-1.212659602363904e-13</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>-1.212659602363904e-13</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>-1.212659602363904e-13</v>
+        <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>-1.212659602363904e-13</v>
+        <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>-1.212659602363904e-13</v>
+        <v>0</v>
       </c>
       <c r="M19" t="n">
-        <v>-1.212659602363904e-13</v>
+        <v>0</v>
       </c>
       <c r="N19" t="n">
-        <v>-1.212659602363904e-13</v>
+        <v>0</v>
       </c>
       <c r="O19" t="n">
-        <v>-1.212659602363904e-13</v>
+        <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>-1.212659602363904e-13</v>
+        <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>-1.212659602363904e-13</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>-1.212659602363904e-13</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>-1.212659602363904e-13</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>-1.212659602363904e-13</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>-1.212659602363904e-13</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>-1.212659602363904e-13</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>-1.212659602363904e-13</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>-1.212659602363904e-13</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>-1.212659602363904e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -28800,28 +28800,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>-1.212659602363904e-13</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>-1.212659602363904e-13</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>-1.212659602363904e-13</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>-1.212659602363904e-13</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>-1.212659602363904e-13</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>-1.212659602363904e-13</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>-1.212659602363904e-13</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>-1.212659602363904e-13</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -28851,25 +28851,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>-1.212659602363904e-13</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>-1.212659602363904e-13</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>-1.212659602363904e-13</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>-1.212659602363904e-13</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>-1.212659602363904e-13</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>-1.212659602363904e-13</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>-1.212659602363904e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -28958,76 +28958,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>-1.212659602363904e-13</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>-1.212659602363904e-13</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>-1.212659602363904e-13</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>-1.212659602363904e-13</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>-1.212659602363904e-13</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>-1.212659602363904e-13</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>-1.212659602363904e-13</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>-1.212659602363904e-13</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>-1.212659602363904e-13</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>-1.212659602363904e-13</v>
+        <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>-1.212659602363904e-13</v>
+        <v>0</v>
       </c>
       <c r="M22" t="n">
-        <v>-1.212659602363904e-13</v>
+        <v>0</v>
       </c>
       <c r="N22" t="n">
-        <v>-1.212659602363904e-13</v>
+        <v>0</v>
       </c>
       <c r="O22" t="n">
-        <v>-1.212659602363904e-13</v>
+        <v>0</v>
       </c>
       <c r="P22" t="n">
-        <v>-1.212659602363904e-13</v>
+        <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>-1.212659602363904e-13</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>-1.212659602363904e-13</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>-1.212659602363904e-13</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>-1.212659602363904e-13</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>-1.212659602363904e-13</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>-1.212659602363904e-13</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>-1.212659602363904e-13</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>-1.212659602363904e-13</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>-1.212659602363904e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -29195,76 +29195,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>-1.212659602363904e-13</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>-1.212659602363904e-13</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>-1.212659602363904e-13</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>-1.212659602363904e-13</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>-1.212659602363904e-13</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>-1.212659602363904e-13</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>-1.212659602363904e-13</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>-1.212659602363904e-13</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>-1.212659602363904e-13</v>
+        <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>-1.212659602363904e-13</v>
+        <v>0</v>
       </c>
       <c r="L25" t="n">
-        <v>-1.212659602363904e-13</v>
+        <v>0</v>
       </c>
       <c r="M25" t="n">
-        <v>-1.212659602363904e-13</v>
+        <v>0</v>
       </c>
       <c r="N25" t="n">
-        <v>-1.212659602363904e-13</v>
+        <v>0</v>
       </c>
       <c r="O25" t="n">
-        <v>-1.212659602363904e-13</v>
+        <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>-1.212659602363904e-13</v>
+        <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>-1.212659602363904e-13</v>
+        <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>-1.212659602363904e-13</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>-1.212659602363904e-13</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>-1.212659602363904e-13</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>-1.212659602363904e-13</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>-1.212659602363904e-13</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>-1.212659602363904e-13</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>-1.212659602363904e-13</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>-1.212659602363904e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -31284,19 +31284,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31311,13 +31311,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31357,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I6" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31384,22 +31384,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,16 +31436,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31460,16 +31460,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31521,19 +31521,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L8" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
@@ -31548,13 +31548,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31594,16 +31594,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I9" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31621,22 +31621,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,16 +31673,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I10" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
         <v>79.14039391302239</v>
@@ -31697,16 +31697,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P10" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.33822072544362</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444948</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176653</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961207</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K11" t="n">
-        <v>424.6341946041492</v>
+        <v>424.6341946041487</v>
       </c>
       <c r="L11" t="n">
-        <v>526.7962671304446</v>
+        <v>526.7962671304439</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565525</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N11" t="n">
-        <v>595.6470695927192</v>
+        <v>595.6470695927185</v>
       </c>
       <c r="O11" t="n">
-        <v>562.4526372540892</v>
+        <v>562.4526372540885</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946997</v>
+        <v>480.0403130946991</v>
       </c>
       <c r="Q11" t="n">
-        <v>360.49028336475</v>
+        <v>360.4902833647495</v>
       </c>
       <c r="R11" t="n">
-        <v>209.694507644648</v>
+        <v>209.6945076446477</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104657</v>
+        <v>76.06970478104647</v>
       </c>
       <c r="T11" t="n">
-        <v>14.61306122562945</v>
+        <v>14.61306122562944</v>
       </c>
       <c r="U11" t="n">
-        <v>0.2670576580354895</v>
+        <v>0.2670576580354892</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354104</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H12" t="n">
-        <v>17.25001940386727</v>
+        <v>17.25001940386725</v>
       </c>
       <c r="I12" t="n">
-        <v>61.49530078127071</v>
+        <v>61.49530078127063</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215735</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K12" t="n">
-        <v>288.4168775622985</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L12" t="n">
-        <v>387.8120847358988</v>
+        <v>387.8120847358984</v>
       </c>
       <c r="M12" t="n">
-        <v>452.558410972485</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813466</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O12" t="n">
-        <v>424.9599466855531</v>
+        <v>424.9599466855525</v>
       </c>
       <c r="P12" t="n">
-        <v>341.0678223458553</v>
+        <v>341.0678223458548</v>
       </c>
       <c r="Q12" t="n">
-        <v>227.9948068710959</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R12" t="n">
-        <v>110.8952201095119</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677468</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T12" t="n">
-        <v>7.199258779361497</v>
+        <v>7.199258779361488</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1175069441680332</v>
+        <v>0.1175069441680331</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.497410895081166</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H13" t="n">
-        <v>13.31334413990347</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I13" t="n">
-        <v>45.03122946298635</v>
+        <v>45.03122946298629</v>
       </c>
       <c r="J13" t="n">
-        <v>105.8669502822384</v>
+        <v>105.8669502822383</v>
       </c>
       <c r="K13" t="n">
-        <v>173.9719203557936</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L13" t="n">
-        <v>222.6241616196126</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M13" t="n">
-        <v>234.7259642171322</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
-        <v>229.1447054263753</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O13" t="n">
-        <v>211.6522236065634</v>
+        <v>211.6522236065631</v>
       </c>
       <c r="P13" t="n">
-        <v>181.1050413469075</v>
+        <v>181.1050413469073</v>
       </c>
       <c r="Q13" t="n">
-        <v>125.3877432235693</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.32903897337677</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S13" t="n">
-        <v>26.09578805336903</v>
+        <v>26.095788053369</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892252</v>
+        <v>6.398028369892244</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351823</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443619</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444947</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176653</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961206</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K14" t="n">
-        <v>424.6341946041491</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L14" t="n">
-        <v>526.7962671304443</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565522</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N14" t="n">
-        <v>595.647069592719</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O14" t="n">
-        <v>562.452637254089</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946996</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q14" t="n">
-        <v>360.4902833647499</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R14" t="n">
-        <v>209.6945076446479</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.06970478104654</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T14" t="n">
-        <v>14.61306122562945</v>
+        <v>14.61306122562944</v>
       </c>
       <c r="U14" t="n">
-        <v>0.2670576580354895</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354104</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H15" t="n">
-        <v>17.25001940386727</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I15" t="n">
-        <v>61.49530078127069</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215735</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K15" t="n">
-        <v>288.4168775622985</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L15" t="n">
-        <v>387.8120847358987</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724849</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813465</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O15" t="n">
-        <v>424.9599466855529</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P15" t="n">
-        <v>341.0678223458552</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q15" t="n">
-        <v>227.9948068710958</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R15" t="n">
-        <v>110.8952201095119</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677467</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T15" t="n">
-        <v>7.199258779361495</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1175069441680332</v>
+        <v>0.1175069441680331</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H16" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I16" t="n">
-        <v>45.03122946298633</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J16" t="n">
-        <v>105.8669502822384</v>
+        <v>105.8669502822383</v>
       </c>
       <c r="K16" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L16" t="n">
-        <v>222.6241616196126</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M16" t="n">
-        <v>234.7259642171321</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N16" t="n">
-        <v>229.1447054263752</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O16" t="n">
-        <v>211.6522236065634</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P16" t="n">
-        <v>181.1050413469074</v>
+        <v>181.1050413469073</v>
       </c>
       <c r="Q16" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.32903897337674</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S16" t="n">
-        <v>26.09578805336903</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.39802836989225</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U16" t="n">
-        <v>0.0816769579135182</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,43 +32226,43 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K17" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L17" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M17" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N17" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O17" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q17" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R17" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
@@ -32305,46 +32305,46 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H18" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I18" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K18" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L18" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O18" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P18" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q18" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R18" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T18" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32390,7 +32390,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I19" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J19" t="n">
         <v>105.8669502822383</v>
@@ -32402,10 +32402,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M19" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N19" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O19" t="n">
         <v>211.6522236065632</v>
@@ -32414,19 +32414,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q19" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S19" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,43 +32463,43 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K20" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L20" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N20" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O20" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q20" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R20" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32542,46 +32542,46 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H21" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I21" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K21" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L21" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O21" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P21" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q21" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R21" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T21" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32627,7 +32627,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I22" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J22" t="n">
         <v>105.8669502822383</v>
@@ -32639,10 +32639,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M22" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O22" t="n">
         <v>211.6522236065632</v>
@@ -32651,19 +32651,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q22" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32703,7 +32703,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I23" t="n">
         <v>128.6967545176652</v>
@@ -32712,31 +32712,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K23" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L23" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N23" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O23" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q23" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R23" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32785,31 +32785,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I24" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K24" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L24" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O24" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P24" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q24" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R24" t="n">
         <v>110.8952201095118</v>
@@ -32864,7 +32864,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I25" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J25" t="n">
         <v>105.8669502822383</v>
@@ -32876,7 +32876,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M25" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
         <v>229.1447054263751</v>
@@ -32888,19 +32888,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q25" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,16 +32937,16 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K26" t="n">
         <v>424.6341946041488</v>
@@ -32955,7 +32955,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N26" t="n">
         <v>595.6470695927186</v>
@@ -32964,7 +32964,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q26" t="n">
         <v>360.4902833647496</v>
@@ -32973,7 +32973,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33016,7 +33016,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H27" t="n">
         <v>17.25001940386726</v>
@@ -33025,7 +33025,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K27" t="n">
         <v>288.4168775622982</v>
@@ -33034,10 +33034,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O27" t="n">
         <v>424.9599466855526</v>
@@ -33052,10 +33052,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T27" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33116,7 +33116,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O28" t="n">
         <v>211.6522236065632</v>
@@ -33128,16 +33128,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33411,16 +33411,16 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K32" t="n">
         <v>424.6341946041488</v>
@@ -33429,7 +33429,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N32" t="n">
         <v>595.6470695927186</v>
@@ -33438,7 +33438,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q32" t="n">
         <v>360.4902833647496</v>
@@ -33447,7 +33447,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33490,7 +33490,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H33" t="n">
         <v>17.25001940386726</v>
@@ -33499,7 +33499,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K33" t="n">
         <v>288.4168775622982</v>
@@ -33508,10 +33508,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O33" t="n">
         <v>424.9599466855526</v>
@@ -33526,10 +33526,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T33" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33590,7 +33590,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O34" t="n">
         <v>211.6522236065632</v>
@@ -33602,16 +33602,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -34359,16 +34359,16 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K44" t="n">
         <v>424.6341946041488</v>
@@ -34377,7 +34377,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N44" t="n">
         <v>595.6470695927186</v>
@@ -34386,7 +34386,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q44" t="n">
         <v>360.4902833647496</v>
@@ -34395,7 +34395,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34438,7 +34438,7 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H45" t="n">
         <v>17.25001940386726</v>
@@ -34447,7 +34447,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K45" t="n">
         <v>288.4168775622982</v>
@@ -34456,10 +34456,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O45" t="n">
         <v>424.9599466855526</v>
@@ -34474,10 +34474,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T45" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34538,7 +34538,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N46" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O46" t="n">
         <v>211.6522236065632</v>
@@ -34550,16 +34550,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R46" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34777,10 +34777,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K3" t="n">
-        <v>214.4070918624589</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
@@ -34798,7 +34798,7 @@
         <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535575</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34935,19 +34935,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K5" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35014,10 +35014,10 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>138.3897561047526</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
         <v>408.7029475713857</v>
@@ -35026,13 +35026,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245898</v>
+        <v>401.1632560839191</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
         <v>173.8110948137341</v>
@@ -35172,19 +35172,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K8" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
         <v>406.5635087530452</v>
@@ -35251,7 +35251,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35263,16 +35263,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>515.9012490932197</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535667</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35409,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>271.3780219415082</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K11" t="n">
-        <v>528.6897561303334</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L11" t="n">
-        <v>708.6910667109078</v>
+        <v>708.6910667109071</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221123</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N11" t="n">
-        <v>803.5809304081124</v>
+        <v>803.5809304081117</v>
       </c>
       <c r="O11" t="n">
-        <v>713.1546070951478</v>
+        <v>713.1546070951471</v>
       </c>
       <c r="P11" t="n">
-        <v>570.6060255109128</v>
+        <v>570.6060255109122</v>
       </c>
       <c r="Q11" t="n">
-        <v>350.4995841502052</v>
+        <v>350.4995841502047</v>
       </c>
       <c r="R11" t="n">
-        <v>59.8253897034983</v>
+        <v>59.82538970349805</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>41.91017895490685</v>
+        <v>41.91017895490663</v>
       </c>
       <c r="K12" t="n">
-        <v>150.5754385879395</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L12" t="n">
-        <v>620.0980502594839</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M12" t="n">
-        <v>776.1294408004667</v>
+        <v>310.4243770504661</v>
       </c>
       <c r="N12" t="n">
-        <v>333.1945733980133</v>
+        <v>586.9317337484878</v>
       </c>
       <c r="O12" t="n">
-        <v>282.3637022411086</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P12" t="n">
-        <v>207.093414931525</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q12" t="n">
-        <v>140.510366398124</v>
+        <v>88.01303278507407</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556552</v>
+        <v>12.5077701655655</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L13" t="n">
-        <v>250.2141868799287</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M13" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789724</v>
       </c>
       <c r="N13" t="n">
-        <v>273.2768778056038</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187472</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35646,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>271.3780219415081</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
-        <v>528.6897561303333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L14" t="n">
-        <v>708.6910667109075</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M14" t="n">
-        <v>805.329650222112</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N14" t="n">
-        <v>803.5809304081123</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O14" t="n">
-        <v>713.1546070951476</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P14" t="n">
-        <v>570.6060255109127</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q14" t="n">
-        <v>350.4995841502051</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349825</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>168.0012142953156</v>
+        <v>137.9476282330536</v>
       </c>
       <c r="K15" t="n">
-        <v>415.0406756005181</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L15" t="n">
-        <v>249.2577049560246</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M15" t="n">
-        <v>310.4243770504666</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N15" t="n">
-        <v>333.1945733980132</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O15" t="n">
-        <v>282.3637022411085</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P15" t="n">
-        <v>495.5025975091983</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q15" t="n">
-        <v>298.0903205209233</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,19 +35804,19 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556547</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K16" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L16" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M16" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N16" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O16" t="n">
         <v>236.2373515206029</v>
@@ -35825,7 +35825,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187472</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35886,28 +35886,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L17" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N17" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O17" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P17" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q17" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>41.91017895490671</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K18" t="n">
-        <v>150.5754385879393</v>
+        <v>384.9870895382561</v>
       </c>
       <c r="L18" t="n">
-        <v>425.9753597058689</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M18" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N18" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O18" t="n">
-        <v>676.2260215178378</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P18" t="n">
-        <v>525.5561835714619</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q18" t="n">
-        <v>88.01303278507416</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36041,7 +36041,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556542</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K19" t="n">
         <v>151.7024285299105</v>
@@ -36050,10 +36050,10 @@
         <v>250.2141868799285</v>
       </c>
       <c r="M19" t="n">
-        <v>274.3098411789724</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N19" t="n">
-        <v>273.2768778056035</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O19" t="n">
         <v>236.2373515206028</v>
@@ -36062,7 +36062,7 @@
         <v>178.3836006118007</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187465</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36123,28 +36123,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L20" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
         <v>805.3296502221118</v>
       </c>
       <c r="N20" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O20" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P20" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q20" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36202,25 +36202,25 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K21" t="n">
-        <v>150.5754385879393</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L21" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M21" t="n">
-        <v>754.9133157366315</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O21" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P21" t="n">
-        <v>525.5561835714619</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q21" t="n">
-        <v>88.01303278507416</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36278,7 +36278,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556542</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K22" t="n">
         <v>151.7024285299105</v>
@@ -36287,10 +36287,10 @@
         <v>250.2141868799285</v>
       </c>
       <c r="M22" t="n">
-        <v>274.3098411789724</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N22" t="n">
-        <v>273.2768778056035</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
         <v>236.2373515206028</v>
@@ -36299,7 +36299,7 @@
         <v>178.3836006118007</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187465</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36363,25 +36363,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L23" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N23" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O23" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P23" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q23" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349813</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36436,16 +36436,16 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>137.9476282330529</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K24" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L24" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N24" t="n">
         <v>333.1945733980129</v>
@@ -36454,7 +36454,7 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P24" t="n">
-        <v>525.5561835714619</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q24" t="n">
         <v>298.0903205209232</v>
@@ -36515,28 +36515,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556542</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L25" t="n">
         <v>250.2141868799285</v>
       </c>
       <c r="M25" t="n">
-        <v>274.3098411789724</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N25" t="n">
-        <v>273.2768778056035</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187465</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36597,13 +36597,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L26" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N26" t="n">
         <v>803.5809304081118</v>
@@ -36618,7 +36618,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36673,28 +36673,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K27" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L27" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M27" t="n">
-        <v>720.1247453734244</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N27" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O27" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P27" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q27" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36752,10 +36752,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L28" t="n">
         <v>250.2141868799285</v>
@@ -36767,13 +36767,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36910,28 +36910,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K30" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L30" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M30" t="n">
-        <v>776.1294408004661</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N30" t="n">
-        <v>756.5322523145245</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O30" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P30" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q30" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37071,13 +37071,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L32" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N32" t="n">
         <v>803.5809304081118</v>
@@ -37092,7 +37092,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37156,22 +37156,22 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M33" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N33" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O33" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P33" t="n">
-        <v>484.7652115523313</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q33" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R33" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37226,10 +37226,10 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K34" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L34" t="n">
         <v>250.2141868799285</v>
@@ -37241,13 +37241,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O34" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P34" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q34" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37384,13 +37384,13 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>155.5128710843606</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K36" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L36" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M36" t="n">
         <v>310.4243770504663</v>
@@ -37399,16 +37399,16 @@
         <v>333.1945733980129</v>
       </c>
       <c r="O36" t="n">
-        <v>676.2260215178377</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P36" t="n">
-        <v>207.0934149315247</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q36" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R36" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37551,7 +37551,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N38" t="n">
         <v>803.5809304081118</v>
@@ -37566,7 +37566,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349766</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37624,7 +37624,7 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K39" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L39" t="n">
         <v>249.2577049560243</v>
@@ -37633,19 +37633,19 @@
         <v>310.4243770504663</v>
       </c>
       <c r="N39" t="n">
-        <v>556.8688383914607</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O39" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P39" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q39" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R39" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37782,7 +37782,7 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.6897561303329</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L41" t="n">
         <v>708.6910667109072</v>
@@ -37803,7 +37803,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37858,7 +37858,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>137.9476282330536</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K42" t="n">
         <v>415.0406756005178</v>
@@ -37876,7 +37876,7 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P42" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q42" t="n">
         <v>298.0903205209232</v>
@@ -38019,7 +38019,7 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L44" t="n">
         <v>708.6910667109072</v>
@@ -38040,7 +38040,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38104,16 +38104,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M45" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N45" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O45" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P45" t="n">
-        <v>495.5025975092001</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q45" t="n">
         <v>298.0903205209232</v>
@@ -38174,10 +38174,10 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K46" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L46" t="n">
         <v>250.2141868799285</v>
@@ -38189,13 +38189,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O46" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P46" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q46" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_3_35.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_3_35.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3456576.86496503</v>
+        <v>3461516.127814061</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.837800621</v>
+        <v>2264668.837800622</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1169509.51166597</v>
+        <v>1169509.511665969</v>
       </c>
     </row>
     <row r="9">
@@ -706,7 +706,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
@@ -816,10 +816,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>37.83808333974894</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>59.66385641544537</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -828,7 +828,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>167.3098022590509</v>
@@ -901,16 +901,16 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>163.9427735553738</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -952,19 +952,19 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>325.2557485598865</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -1077,7 +1077,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1098,7 +1098,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1119,10 +1119,10 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>27.45797858609773</v>
       </c>
       <c r="Y7" t="n">
-        <v>94.65568569260694</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1138,10 +1138,10 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>109.4422623037134</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>5.983388191319379</v>
       </c>
       <c r="F8" t="n">
         <v>6.876045741711437</v>
@@ -1180,7 +1180,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -1189,7 +1189,7 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -1296,16 +1296,16 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>55.84003136202626</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1314,7 +1314,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1338,7 +1338,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1356,10 +1356,10 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>35.10850750580164</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1426,10 +1426,10 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U11" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701337</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -1530,10 +1530,10 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -1578,25 +1578,25 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>203.8435192151915</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>93.31268305691053</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1618,7 +1618,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417096</v>
       </c>
       <c r="G14" t="n">
         <v>411.9645167896915</v>
@@ -1627,7 +1627,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274077</v>
+        <v>81.7791350527408</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
@@ -1706,7 +1706,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014446</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1764,10 +1764,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
@@ -1776,16 +1776,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,28 +1812,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>67.61524188852295</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>160.6213003313929</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1864,7 +1864,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274077</v>
+        <v>81.7791350527408</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051975</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
@@ -1943,7 +1943,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014446</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2001,7 +2001,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -2055,22 +2055,22 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985773</v>
+        <v>245.5591000916432</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>211.2541671901477</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2098,10 +2098,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H20" t="n">
-        <v>305.2872491113174</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274077</v>
+        <v>81.7791350527408</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2180,7 +2180,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014445</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2298,16 +2298,16 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>237.6821551249385</v>
+        <v>204.1291651532051</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2338,7 +2338,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274071</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2417,7 +2417,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2526,13 +2526,13 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>183.1796758467005</v>
       </c>
       <c r="T25" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2541,10 +2541,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>143.3158222056515</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2575,7 +2575,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274225</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2654,7 +2654,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2712,7 +2712,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -2727,7 +2727,7 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2760,19 +2760,19 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>115.526976800218</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
-        <v>2.654169196206531</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -2781,7 +2781,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2812,7 +2812,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274071</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
@@ -2891,7 +2891,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2961,7 +2961,7 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -3000,10 +3000,10 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>221.5475610583892</v>
+        <v>191.6534898356759</v>
       </c>
       <c r="U31" t="n">
         <v>286.2373523985773</v>
@@ -3015,7 +3015,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>143.3158222056515</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -3043,13 +3043,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>411.9645167896912</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H32" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274071</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3128,7 +3128,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3237,7 +3237,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>115.5269768002178</v>
+        <v>115.5269768002183</v>
       </c>
       <c r="T34" t="n">
         <v>221.5475610583892</v>
@@ -3286,7 +3286,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274071</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3365,7 +3365,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3474,10 +3474,10 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>115.5269768002178</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>221.5475610583892</v>
+        <v>118.4898845065123</v>
       </c>
       <c r="U37" t="n">
         <v>286.2373523985773</v>
@@ -3492,7 +3492,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3508,7 +3508,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206827</v>
       </c>
       <c r="E38" t="n">
         <v>381.9303700722618</v>
@@ -3523,7 +3523,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274071</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3559,7 +3559,7 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U38" t="n">
-        <v>251.0785952498008</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3602,7 +3602,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3675,10 +3675,10 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3708,25 +3708,25 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>168.0025262783764</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
-        <v>221.5475610583892</v>
+        <v>139.1537278750042</v>
       </c>
       <c r="U40" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -3760,7 +3760,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274071</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3839,7 +3839,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3906,7 +3906,7 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -3951,13 +3951,13 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
-        <v>221.5475610583892</v>
+        <v>60.37246427491736</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>169.7438101404424</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
@@ -3966,7 +3966,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -3997,7 +3997,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274071</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4076,7 +4076,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4191,10 +4191,10 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
@@ -4203,7 +4203,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>93.879166811399</v>
+        <v>59.77945773665006</v>
       </c>
     </row>
   </sheetData>
@@ -4330,19 +4330,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4385,25 +4385,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692486</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673427</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
@@ -4448,10 +4448,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4464,16 +4464,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>689.9086980046678</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="C4" t="n">
-        <v>520.9725150767609</v>
+        <v>667.8624625746712</v>
       </c>
       <c r="D4" t="n">
-        <v>370.8558756644252</v>
+        <v>517.7458231623355</v>
       </c>
       <c r="E4" t="n">
-        <v>222.942782082032</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="F4" t="n">
         <v>222.942782082032</v>
@@ -4494,46 +4494,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M4" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>999.4901647174279</v>
+        <v>1591.868758816787</v>
       </c>
       <c r="C5" t="n">
-        <v>630.5276477770162</v>
+        <v>1222.906241876376</v>
       </c>
       <c r="D5" t="n">
-        <v>630.5276477770162</v>
+        <v>864.6405432696254</v>
       </c>
       <c r="E5" t="n">
-        <v>630.5276477770162</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="F5" t="n">
-        <v>219.5417429874087</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G5" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P5" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q5" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T5" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U5" t="n">
-        <v>2443.387305656314</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V5" t="n">
-        <v>2112.324418312744</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W5" t="n">
-        <v>1759.555763042629</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="X5" t="n">
-        <v>1386.09000478155</v>
+        <v>2368.607930856721</v>
       </c>
       <c r="Y5" t="n">
-        <v>1386.09000478155</v>
+        <v>1978.468598880909</v>
       </c>
     </row>
     <row r="6">
@@ -4643,28 +4643,28 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036446</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1791.679670014717</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O6" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P6" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018223</v>
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>222.8791647482714</v>
+        <v>268.5356891811371</v>
       </c>
       <c r="C7" t="n">
-        <v>53.94298182036446</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="D7" t="n">
-        <v>53.94298182036446</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="E7" t="n">
-        <v>53.94298182036446</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="F7" t="n">
-        <v>53.94298182036446</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036446</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036446</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036446</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K7" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M7" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="V7" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="W7" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="X7" t="n">
-        <v>500.1394333084171</v>
+        <v>670.9767331549069</v>
       </c>
       <c r="Y7" t="n">
-        <v>404.5276295785111</v>
+        <v>450.1841540113768</v>
       </c>
     </row>
     <row r="8">
@@ -4780,13 +4780,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>554.3221432721093</v>
+        <v>808.0839286340174</v>
       </c>
       <c r="C8" t="n">
-        <v>185.3596263316976</v>
+        <v>439.1214116936057</v>
       </c>
       <c r="D8" t="n">
-        <v>74.81188663097703</v>
+        <v>80.85571308685519</v>
       </c>
       <c r="E8" t="n">
         <v>74.81188663097703</v>
@@ -4795,22 +4795,22 @@
         <v>67.86638588177355</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733131</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4822,10 +4822,10 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
         <v>2642.120401548716</v>
@@ -4837,19 +4837,19 @@
         <v>2642.120401548716</v>
       </c>
       <c r="U8" t="n">
-        <v>2388.358616186807</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V8" t="n">
-        <v>2057.295728843237</v>
+        <v>2311.057514205145</v>
       </c>
       <c r="W8" t="n">
-        <v>1704.527073573123</v>
+        <v>1958.288858935031</v>
       </c>
       <c r="X8" t="n">
-        <v>1331.061315312043</v>
+        <v>1584.823100673951</v>
       </c>
       <c r="Y8" t="n">
-        <v>940.9219833362311</v>
+        <v>1194.683768698139</v>
       </c>
     </row>
     <row r="9">
@@ -4880,7 +4880,7 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
         <v>129.2001442204943</v>
@@ -4898,10 +4898,10 @@
         <v>1866.936832414847</v>
       </c>
       <c r="O9" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P9" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>279.3468541648868</v>
+        <v>544.5191867458693</v>
       </c>
       <c r="C10" t="n">
-        <v>279.3468541648868</v>
+        <v>544.5191867458693</v>
       </c>
       <c r="D10" t="n">
-        <v>279.3468541648868</v>
+        <v>394.4025473335336</v>
       </c>
       <c r="E10" t="n">
-        <v>279.3468541648868</v>
+        <v>246.4894537511404</v>
       </c>
       <c r="F10" t="n">
-        <v>222.942782082032</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036446</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036446</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036446</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M10" t="n">
         <v>382.716901165821</v>
       </c>
       <c r="N10" t="n">
-        <v>529.60403885025</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594902</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064343</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064343</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064343</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064343</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064343</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="W10" t="n">
-        <v>728.1289842064343</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="X10" t="n">
-        <v>500.139433308417</v>
+        <v>544.5191867458693</v>
       </c>
       <c r="Y10" t="n">
-        <v>279.3468541648868</v>
+        <v>544.5191867458693</v>
       </c>
     </row>
     <row r="11">
@@ -5017,7 +5017,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C11" t="n">
         <v>2059.358867610191</v>
@@ -5026,25 +5026,25 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155893</v>
       </c>
       <c r="G11" t="n">
         <v>488.193237080547</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J11" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L11" t="n">
         <v>1590.888347795206</v>
@@ -5059,13 +5059,13 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S11" t="n">
         <v>4726.561275231263</v>
@@ -5074,19 +5074,19 @@
         <v>4515.972600141867</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W11" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="12">
@@ -5117,19 +5117,19 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J12" t="n">
         <v>138.7081686256434</v>
       </c>
       <c r="K12" t="n">
-        <v>549.598437470156</v>
+        <v>287.7778528277032</v>
       </c>
       <c r="L12" t="n">
-        <v>1163.495507227045</v>
+        <v>534.5429807341671</v>
       </c>
       <c r="M12" t="n">
-        <v>1470.815640507006</v>
+        <v>1302.911127126628</v>
       </c>
       <c r="N12" t="n">
         <v>2051.878056918009</v>
@@ -5175,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>416.2699138005285</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="C13" t="n">
-        <v>247.3337308726216</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="D13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="E13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="F13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="G13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="H13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J13" t="n">
         <v>109.5997839241957</v>
@@ -5226,25 +5226,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S13" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473454</v>
       </c>
       <c r="T13" t="n">
-        <v>1275.130855347408</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U13" t="n">
-        <v>986.0022165609662</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V13" t="n">
-        <v>731.3177283550793</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W13" t="n">
-        <v>731.3177283550793</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X13" t="n">
-        <v>637.0624929440586</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="Y13" t="n">
-        <v>416.2699138005285</v>
+        <v>97.21709146028583</v>
       </c>
     </row>
     <row r="14">
@@ -5254,31 +5254,31 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.3213845506</v>
       </c>
       <c r="C14" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610188</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003438</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405194</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155889</v>
       </c>
       <c r="G14" t="n">
         <v>488.193237080547</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823783</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K14" t="n">
         <v>889.2841917514079</v>
@@ -5287,43 +5287,43 @@
         <v>1590.888347795206</v>
       </c>
       <c r="M14" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O14" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643322</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899125</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.627437207828</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T14" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465298</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121728</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851613</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590533</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614722</v>
       </c>
     </row>
     <row r="15">
@@ -5354,28 +5354,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J15" t="n">
-        <v>233.7852434110089</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K15" t="n">
-        <v>644.6755122555215</v>
+        <v>287.7778528277031</v>
       </c>
       <c r="L15" t="n">
-        <v>891.4406401619856</v>
+        <v>534.542980734167</v>
       </c>
       <c r="M15" t="n">
-        <v>1198.760773441947</v>
+        <v>1302.911127126628</v>
       </c>
       <c r="N15" t="n">
-        <v>1528.62340110598</v>
+        <v>1632.773754790661</v>
       </c>
       <c r="O15" t="n">
-        <v>1808.163466324677</v>
+        <v>2302.23751609332</v>
       </c>
       <c r="P15" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q15" t="n">
         <v>2623.573505376138</v>
@@ -5412,46 +5412,46 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1141.200876391121</v>
+        <v>395.2468244550147</v>
       </c>
       <c r="C16" t="n">
-        <v>972.2646934632137</v>
+        <v>395.2468244550147</v>
       </c>
       <c r="D16" t="n">
-        <v>822.1480540508779</v>
+        <v>245.1301850426789</v>
       </c>
       <c r="E16" t="n">
-        <v>674.2349604684848</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="F16" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="G16" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="H16" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J16" t="n">
         <v>109.5997839241957</v>
       </c>
       <c r="K16" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799362</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471189</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O16" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P16" t="n">
         <v>1460.082827585746</v>
@@ -5460,28 +5460,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S16" t="n">
-        <v>1498.916270557902</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T16" t="n">
-        <v>1430.618046428081</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="U16" t="n">
-        <v>1430.618046428081</v>
+        <v>1025.677419326802</v>
       </c>
       <c r="V16" t="n">
-        <v>1430.618046428081</v>
+        <v>1025.677419326802</v>
       </c>
       <c r="W16" t="n">
-        <v>1141.200876391121</v>
+        <v>1025.677419326802</v>
       </c>
       <c r="X16" t="n">
-        <v>1141.200876391121</v>
+        <v>797.6878684287846</v>
       </c>
       <c r="Y16" t="n">
-        <v>1141.200876391121</v>
+        <v>576.8952892852544</v>
       </c>
     </row>
     <row r="17">
@@ -5491,7 +5491,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C17" t="n">
         <v>2059.358867610191</v>
@@ -5500,25 +5500,25 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F17" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G17" t="n">
-        <v>488.1932370805465</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823785</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L17" t="n">
         <v>1590.888347795206</v>
@@ -5533,13 +5533,13 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S17" t="n">
         <v>4726.561275231264</v>
@@ -5551,16 +5551,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W17" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="18">
@@ -5591,28 +5591,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J18" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K18" t="n">
-        <v>644.6755122555218</v>
+        <v>287.7778528277031</v>
       </c>
       <c r="L18" t="n">
-        <v>891.4406401619858</v>
+        <v>563.7235867775526</v>
       </c>
       <c r="M18" t="n">
-        <v>1198.760773441947</v>
+        <v>1332.091733170014</v>
       </c>
       <c r="N18" t="n">
-        <v>1528.62340110598</v>
+        <v>1661.954360834046</v>
       </c>
       <c r="O18" t="n">
-        <v>1808.163466324677</v>
+        <v>2331.418122136706</v>
       </c>
       <c r="P18" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q18" t="n">
         <v>2623.573505376138</v>
@@ -5649,46 +5649,46 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="C19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="D19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="E19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="F19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="G19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="H19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J19" t="n">
         <v>109.5997839241957</v>
       </c>
       <c r="K19" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799362</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471189</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O19" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P19" t="n">
         <v>1460.082827585746</v>
@@ -5700,25 +5700,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
-        <v>1298.996260473455</v>
+        <v>1298.996260473454</v>
       </c>
       <c r="T19" t="n">
-        <v>1075.21084526296</v>
+        <v>1298.996260473454</v>
       </c>
       <c r="U19" t="n">
-        <v>786.0822064765186</v>
+        <v>1050.956765431391</v>
       </c>
       <c r="V19" t="n">
-        <v>531.3977182706318</v>
+        <v>796.2722772255036</v>
       </c>
       <c r="W19" t="n">
-        <v>318.0096706038159</v>
+        <v>506.8551071885429</v>
       </c>
       <c r="X19" t="n">
-        <v>318.0096706038159</v>
+        <v>278.8655562905255</v>
       </c>
       <c r="Y19" t="n">
-        <v>97.21709146028584</v>
+        <v>278.8655562905255</v>
       </c>
     </row>
     <row r="20">
@@ -5731,7 +5731,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D20" t="n">
         <v>1701.09316900344</v>
@@ -5740,25 +5740,25 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805467</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I20" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823795</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514082</v>
+        <v>889.284191751409</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M20" t="n">
         <v>2388.164701515097</v>
@@ -5785,16 +5785,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y20" t="n">
         <v>2814.921224614724</v>
@@ -5831,25 +5831,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K21" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277032</v>
       </c>
       <c r="L21" t="n">
-        <v>921.1936903636249</v>
+        <v>534.5429807341671</v>
       </c>
       <c r="M21" t="n">
-        <v>1228.513823643586</v>
+        <v>1247.466478653858</v>
       </c>
       <c r="N21" t="n">
-        <v>1558.376451307619</v>
+        <v>2051.878056918009</v>
       </c>
       <c r="O21" t="n">
-        <v>1837.916516526316</v>
+        <v>2331.418122136706</v>
       </c>
       <c r="P21" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q21" t="n">
         <v>2623.573505376138</v>
@@ -5913,19 +5913,19 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K22" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471189</v>
       </c>
       <c r="N22" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O22" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P22" t="n">
         <v>1460.082827585746</v>
@@ -5937,22 +5937,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S22" t="n">
-        <v>1298.996260473455</v>
+        <v>1298.996260473454</v>
       </c>
       <c r="T22" t="n">
         <v>1075.21084526296</v>
       </c>
       <c r="U22" t="n">
-        <v>786.0822064765186</v>
+        <v>786.0822064765184</v>
       </c>
       <c r="V22" t="n">
-        <v>786.0822064765186</v>
+        <v>531.3977182706316</v>
       </c>
       <c r="W22" t="n">
-        <v>545.9992215018333</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X22" t="n">
-        <v>318.0096706038159</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y22" t="n">
         <v>97.21709146028584</v>
@@ -5965,34 +5965,34 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F23" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G23" t="n">
         <v>488.1932370805466</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822457</v>
       </c>
       <c r="I23" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823783</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L23" t="n">
         <v>1590.888347795206</v>
@@ -6001,7 +6001,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O23" t="n">
         <v>3889.732883643323</v>
@@ -6013,28 +6013,28 @@
         <v>4801.62743720783</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T23" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="24">
@@ -6056,34 +6056,34 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F24" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G24" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H24" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I24" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K24" t="n">
-        <v>674.4285624571609</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L24" t="n">
-        <v>921.1936903636249</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M24" t="n">
         <v>1228.513823643587</v>
       </c>
       <c r="N24" t="n">
-        <v>1558.376451307619</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O24" t="n">
-        <v>1837.916516526316</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P24" t="n">
         <v>2328.464088060424</v>
@@ -6150,13 +6150,13 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K25" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N25" t="n">
         <v>1049.608084974667</v>
@@ -6165,31 +6165,31 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P25" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q25" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R25" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S25" t="n">
-        <v>1298.996260473455</v>
+        <v>1313.886294955175</v>
       </c>
       <c r="T25" t="n">
-        <v>1075.21084526296</v>
+        <v>1090.100879744681</v>
       </c>
       <c r="U25" t="n">
-        <v>786.0822064765186</v>
+        <v>1090.100879744681</v>
       </c>
       <c r="V25" t="n">
-        <v>531.3977182706318</v>
+        <v>835.416391538794</v>
       </c>
       <c r="W25" t="n">
-        <v>241.9805482336712</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X25" t="n">
-        <v>97.21709146028584</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y25" t="n">
         <v>97.21709146028584</v>
@@ -6202,34 +6202,34 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550604</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610193</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155904</v>
       </c>
       <c r="G26" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805485</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822478</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J26" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L26" t="n">
         <v>1590.888347795207</v>
@@ -6241,37 +6241,37 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O26" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T26" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141869</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465303</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121732</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851618</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590538</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614726</v>
       </c>
     </row>
     <row r="27">
@@ -6302,25 +6302,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J27" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K27" t="n">
-        <v>674.4285624571609</v>
+        <v>674.4285624571611</v>
       </c>
       <c r="L27" t="n">
-        <v>921.1936903636249</v>
+        <v>921.1936903636253</v>
       </c>
       <c r="M27" t="n">
         <v>1228.513823643587</v>
       </c>
       <c r="N27" t="n">
-        <v>1558.376451307619</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O27" t="n">
-        <v>1837.916516526316</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P27" t="n">
         <v>2328.464088060424</v>
@@ -6360,40 +6360,40 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="C28" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="D28" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="E28" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="F28" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="G28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="H28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J28" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K28" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N28" t="n">
         <v>1049.608084974667</v>
@@ -6402,34 +6402,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P28" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q28" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R28" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S28" t="n">
-        <v>1187.92115703528</v>
+        <v>1382.222354598087</v>
       </c>
       <c r="T28" t="n">
-        <v>1187.92115703528</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U28" t="n">
-        <v>1187.92115703528</v>
+        <v>869.3083006011507</v>
       </c>
       <c r="V28" t="n">
-        <v>1185.240178049213</v>
+        <v>614.6238123952638</v>
       </c>
       <c r="W28" t="n">
-        <v>895.8230080122524</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X28" t="n">
-        <v>667.8334571142351</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="Y28" t="n">
-        <v>447.040877970705</v>
+        <v>97.21709146028589</v>
       </c>
     </row>
     <row r="29">
@@ -6442,49 +6442,49 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155887</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H29" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823785</v>
+        <v>365.881333182377</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514068</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795205</v>
       </c>
       <c r="M29" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O29" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R29" t="n">
         <v>4860.854573014292</v>
@@ -6496,16 +6496,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y29" t="n">
         <v>2814.921224614724</v>
@@ -6530,34 +6530,34 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F30" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G30" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H30" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I30" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K30" t="n">
-        <v>674.4285624571609</v>
+        <v>412.6079778147082</v>
       </c>
       <c r="L30" t="n">
-        <v>921.1936903636249</v>
+        <v>891.4406401619849</v>
       </c>
       <c r="M30" t="n">
-        <v>1228.513823643586</v>
+        <v>1198.760773441947</v>
       </c>
       <c r="N30" t="n">
-        <v>1558.376451307619</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O30" t="n">
-        <v>1837.916516526316</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P30" t="n">
         <v>2328.464088060424</v>
@@ -6597,16 +6597,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>97.21709146028584</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="C31" t="n">
-        <v>97.21709146028584</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="D31" t="n">
-        <v>97.21709146028584</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="E31" t="n">
-        <v>97.21709146028584</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F31" t="n">
         <v>97.21709146028584</v>
@@ -6624,13 +6624,13 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K31" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L31" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M31" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N31" t="n">
         <v>1049.608084974667</v>
@@ -6639,34 +6639,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P31" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q31" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R31" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S31" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T31" t="n">
-        <v>1075.21084526296</v>
+        <v>1305.326886885503</v>
       </c>
       <c r="U31" t="n">
-        <v>786.0822064765186</v>
+        <v>1016.198248099061</v>
       </c>
       <c r="V31" t="n">
-        <v>531.3977182706318</v>
+        <v>761.5137598931742</v>
       </c>
       <c r="W31" t="n">
-        <v>241.9805482336712</v>
+        <v>472.0965898562135</v>
       </c>
       <c r="X31" t="n">
-        <v>97.21709146028584</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="Y31" t="n">
-        <v>97.21709146028584</v>
+        <v>244.1070389581962</v>
       </c>
     </row>
     <row r="32">
@@ -6679,7 +6679,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D32" t="n">
         <v>1701.09316900344</v>
@@ -6688,10 +6688,10 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G32" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H32" t="n">
         <v>179.8222783822462</v>
@@ -6700,28 +6700,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J32" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L32" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M32" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O32" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R32" t="n">
         <v>4860.854573014292</v>
@@ -6733,16 +6733,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y32" t="n">
         <v>2814.921224614724</v>
@@ -6767,34 +6767,34 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F33" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G33" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H33" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I33" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J33" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K33" t="n">
-        <v>674.4285624571609</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L33" t="n">
-        <v>921.1936903636249</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M33" t="n">
         <v>1228.513823643587</v>
       </c>
       <c r="N33" t="n">
-        <v>1558.376451307619</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O33" t="n">
-        <v>1837.916516526316</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P33" t="n">
         <v>2328.464088060424</v>
@@ -6861,13 +6861,13 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K34" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L34" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M34" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N34" t="n">
         <v>1049.608084974667</v>
@@ -6876,13 +6876,13 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P34" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q34" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R34" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S34" t="n">
         <v>1382.222354598086</v>
@@ -6925,40 +6925,40 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155885</v>
+        <v>904.3190116155887</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823783</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M35" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O35" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R35" t="n">
         <v>4860.854573014292</v>
@@ -7004,34 +7004,34 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F36" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G36" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H36" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I36" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J36" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K36" t="n">
-        <v>674.4285624571609</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L36" t="n">
-        <v>921.1936903636249</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M36" t="n">
         <v>1228.513823643587</v>
       </c>
       <c r="N36" t="n">
-        <v>1558.376451307619</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O36" t="n">
-        <v>1837.916516526316</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P36" t="n">
         <v>2328.464088060424</v>
@@ -7098,13 +7098,13 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K37" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L37" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M37" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N37" t="n">
         <v>1049.608084974667</v>
@@ -7113,31 +7113,31 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P37" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q37" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R37" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S37" t="n">
-        <v>1382.222354598086</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T37" t="n">
-        <v>1158.436939387592</v>
+        <v>1379.229518531123</v>
       </c>
       <c r="U37" t="n">
-        <v>869.3083006011506</v>
+        <v>1090.100879744681</v>
       </c>
       <c r="V37" t="n">
-        <v>614.6238123952637</v>
+        <v>835.416391538794</v>
       </c>
       <c r="W37" t="n">
-        <v>325.2066423583032</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X37" t="n">
-        <v>97.21709146028584</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y37" t="n">
         <v>97.21709146028584</v>
@@ -7150,7 +7150,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
         <v>2059.358867610191</v>
@@ -7165,7 +7165,7 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G38" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H38" t="n">
         <v>179.8222783822462</v>
@@ -7189,13 +7189,13 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O38" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R38" t="n">
         <v>4860.854573014292</v>
@@ -7210,16 +7210,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W38" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="39">
@@ -7241,34 +7241,34 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F39" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G39" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H39" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I39" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K39" t="n">
-        <v>674.4285624571609</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L39" t="n">
-        <v>921.1936903636249</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M39" t="n">
         <v>1228.513823643587</v>
       </c>
       <c r="N39" t="n">
-        <v>1558.376451307619</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O39" t="n">
-        <v>1837.916516526316</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P39" t="n">
         <v>2328.464088060424</v>
@@ -7308,22 +7308,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C40" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D40" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E40" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F40" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G40" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H40" t="n">
         <v>97.21709146028584</v>
@@ -7335,13 +7335,13 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K40" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L40" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M40" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N40" t="n">
         <v>1049.608084974667</v>
@@ -7350,34 +7350,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P40" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q40" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R40" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S40" t="n">
-        <v>1218.141645626418</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T40" t="n">
-        <v>994.3562304159243</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U40" t="n">
-        <v>705.2275916294825</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V40" t="n">
-        <v>705.2275916294825</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W40" t="n">
-        <v>415.8104215925219</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X40" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y40" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="41">
@@ -7399,16 +7399,16 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G41" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J41" t="n">
         <v>365.8813331823787</v>
@@ -7426,22 +7426,22 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O41" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S41" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T41" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U41" t="n">
         <v>4262.3578574653</v>
@@ -7478,37 +7478,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F42" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G42" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H42" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J42" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K42" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277034</v>
       </c>
       <c r="L42" t="n">
-        <v>921.1936903636249</v>
+        <v>534.5429807341676</v>
       </c>
       <c r="M42" t="n">
-        <v>1228.513823643587</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N42" t="n">
-        <v>1558.376451307619</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O42" t="n">
-        <v>1837.916516526316</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P42" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q42" t="n">
         <v>2623.573505376138</v>
@@ -7545,28 +7545,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>97.21709146028584</v>
+        <v>245.1301850426789</v>
       </c>
       <c r="C43" t="n">
-        <v>97.21709146028584</v>
+        <v>245.1301850426789</v>
       </c>
       <c r="D43" t="n">
-        <v>97.21709146028584</v>
+        <v>245.1301850426789</v>
       </c>
       <c r="E43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="F43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="G43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="H43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J43" t="n">
         <v>109.5997839241957</v>
@@ -7575,10 +7575,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L43" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M43" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N43" t="n">
         <v>1049.608084974667</v>
@@ -7587,34 +7587,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P43" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q43" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R43" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S43" t="n">
         <v>1298.996260473455</v>
       </c>
       <c r="T43" t="n">
-        <v>1075.21084526296</v>
+        <v>1238.013973327074</v>
       </c>
       <c r="U43" t="n">
-        <v>786.0822064765186</v>
+        <v>1238.013973327074</v>
       </c>
       <c r="V43" t="n">
-        <v>614.6238123952637</v>
+        <v>983.329485121187</v>
       </c>
       <c r="W43" t="n">
-        <v>325.2066423583032</v>
+        <v>693.9123150842264</v>
       </c>
       <c r="X43" t="n">
-        <v>97.21709146028584</v>
+        <v>465.9227641862091</v>
       </c>
       <c r="Y43" t="n">
-        <v>97.21709146028584</v>
+        <v>245.1301850426789</v>
       </c>
     </row>
     <row r="44">
@@ -7636,13 +7636,13 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G44" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822457</v>
       </c>
       <c r="I44" t="n">
         <v>97.21709146028584</v>
@@ -7657,28 +7657,28 @@
         <v>1590.888347795207</v>
       </c>
       <c r="M44" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O44" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R44" t="n">
         <v>4860.854573014292</v>
       </c>
       <c r="S44" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T44" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U44" t="n">
         <v>4262.3578574653</v>
@@ -7715,34 +7715,34 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F45" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G45" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H45" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I45" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K45" t="n">
-        <v>674.4285624571609</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L45" t="n">
-        <v>921.1936903636249</v>
+        <v>1206.718781115523</v>
       </c>
       <c r="M45" t="n">
-        <v>1228.513823643587</v>
+        <v>1514.038914395484</v>
       </c>
       <c r="N45" t="n">
-        <v>1558.376451307619</v>
+        <v>1843.901542059517</v>
       </c>
       <c r="O45" t="n">
-        <v>1837.916516526316</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P45" t="n">
         <v>2328.464088060424</v>
@@ -7809,13 +7809,13 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K46" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L46" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M46" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N46" t="n">
         <v>1049.608084974667</v>
@@ -7824,31 +7824,31 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P46" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q46" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R46" t="n">
         <v>1387.841167119728</v>
       </c>
       <c r="S46" t="n">
-        <v>1187.92115703528</v>
+        <v>1187.921157035281</v>
       </c>
       <c r="T46" t="n">
-        <v>964.135741824786</v>
+        <v>964.1357418247865</v>
       </c>
       <c r="U46" t="n">
-        <v>964.135741824786</v>
+        <v>675.0071030383447</v>
       </c>
       <c r="V46" t="n">
-        <v>709.4512536188992</v>
+        <v>675.0071030383447</v>
       </c>
       <c r="W46" t="n">
-        <v>420.0340835819385</v>
+        <v>385.5899330013841</v>
       </c>
       <c r="X46" t="n">
-        <v>192.0445326839212</v>
+        <v>157.6003821033667</v>
       </c>
       <c r="Y46" t="n">
         <v>97.21709146028584</v>
@@ -8078,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>90.64146763747073</v>
+        <v>90.64146763747121</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8294,7 +8294,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8309,13 +8309,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O6" t="n">
-        <v>350.4438349360588</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747166</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8546,13 +8546,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O9" t="n">
-        <v>393.8623192767295</v>
+        <v>274.4264991783519</v>
       </c>
       <c r="P9" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>90.64146763747166</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8771,16 +8771,16 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N12" t="n">
-        <v>253.7371603504751</v>
+        <v>423.3376789165131</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
@@ -9005,31 +9005,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>96.03744927814688</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P15" t="n">
-        <v>318.4627686399372</v>
+        <v>29.47535963978325</v>
       </c>
       <c r="Q15" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445221</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9242,31 +9242,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>234.4116509503169</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>29.47535963978339</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P18" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445221</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9400,7 +9400,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720747</v>
       </c>
       <c r="K20" t="n">
         <v>324.1454125711647</v>
@@ -9409,7 +9409,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M20" t="n">
-        <v>449.5135334928327</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N20" t="n">
         <v>437.3469244119842</v>
@@ -9479,31 +9479,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>409.7003683229593</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>288.4091825776754</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445218</v>
+        <v>34.7842838544522</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9734,13 +9734,13 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>288.4091825776752</v>
+        <v>288.4091825776744</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445214</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9898,7 +9898,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9971,13 +9971,13 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>288.4091825776752</v>
+        <v>288.4091825776744</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445214</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10111,7 +10111,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720721</v>
       </c>
       <c r="K29" t="n">
         <v>324.1454125711647</v>
@@ -10193,10 +10193,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>234.4116509503157</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
@@ -10208,13 +10208,13 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>288.4091825776754</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445214</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10357,7 +10357,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M32" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928307</v>
       </c>
       <c r="N32" t="n">
         <v>437.3469244119842</v>
@@ -10445,13 +10445,13 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>288.4091825776752</v>
+        <v>288.4091825776744</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445214</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10609,7 +10609,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298102</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10682,13 +10682,13 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>288.4091825776752</v>
+        <v>288.4091825776744</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445214</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10831,7 +10831,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M38" t="n">
-        <v>449.5135334928324</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N38" t="n">
         <v>437.3469244119842</v>
@@ -10846,7 +10846,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298102</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10919,13 +10919,13 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>288.4091825776752</v>
+        <v>288.4091825776744</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445214</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11083,7 +11083,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298011</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11138,31 +11138,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>409.7003683229574</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>288.4091825776752</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445214</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11305,7 +11305,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>449.5135334928324</v>
+        <v>449.5135334928307</v>
       </c>
       <c r="N44" t="n">
         <v>437.3469244119842</v>
@@ -11381,7 +11381,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>288.4091825776743</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
@@ -11393,13 +11393,13 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>288.4091825776752</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445214</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23418,10 +23418,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -23466,25 +23466,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>82.39383318338579</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>132.3969723321266</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23652,10 +23652,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -23664,16 +23664,16 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,28 +23700,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>153.9323191698663</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>125.6160520671844</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23889,7 +23889,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -23943,22 +23943,22 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>40.6782523069341</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>75.26883114644332</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -24186,16 +24186,16 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>48.8408432116525</v>
+        <v>82.39383318338588</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24414,13 +24414,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>14.74113413690279</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24429,10 +24429,10 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>82.39383318338568</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24600,7 +24600,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
@@ -24615,7 +24615,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
         <v>148.9138283675361</v>
@@ -24648,19 +24648,19 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>82.39383318338523</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>249.4834741276215</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24669,7 +24669,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24849,7 +24849,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>166.4935684633776</v>
@@ -24888,10 +24888,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>29.89407122271336</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -24903,7 +24903,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>82.39383318338568</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -25125,7 +25125,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
-        <v>82.39383318338545</v>
+        <v>82.393833183385</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25362,10 +25362,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
-        <v>82.39383318338545</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>103.0576765518769</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25380,7 +25380,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25563,10 +25563,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I40" t="n">
         <v>110.419245464272</v>
@@ -25596,25 +25596,25 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
-        <v>29.91828370522688</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>82.39383318338503</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -25794,7 +25794,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
@@ -25839,13 +25839,13 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>161.1750967834719</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V43" t="n">
-        <v>82.39383318338562</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -25854,7 +25854,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -26079,10 +26079,10 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26091,7 +26091,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>124.7054865406958</v>
+        <v>158.8051956154447</v>
       </c>
     </row>
   </sheetData>
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>705687.6684372856</v>
+        <v>705687.6684372855</v>
       </c>
     </row>
     <row r="8">
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>718411.5486312478</v>
+        <v>718411.5486312479</v>
       </c>
       <c r="C2" t="n">
+        <v>718411.5486312475</v>
+      </c>
+      <c r="D2" t="n">
         <v>718411.5486312477</v>
       </c>
-      <c r="D2" t="n">
-        <v>718411.5486312479</v>
-      </c>
       <c r="E2" t="n">
-        <v>684300.8545409903</v>
+        <v>684300.85454099</v>
       </c>
       <c r="F2" t="n">
         <v>684300.8545409902</v>
       </c>
       <c r="G2" t="n">
-        <v>684300.8545409902</v>
+        <v>684300.8545409904</v>
       </c>
       <c r="H2" t="n">
         <v>684300.8545409903</v>
       </c>
       <c r="I2" t="n">
-        <v>684300.8545409899</v>
+        <v>684300.85454099</v>
       </c>
       <c r="J2" t="n">
-        <v>684300.8545409903</v>
+        <v>684300.8545409902</v>
       </c>
       <c r="K2" t="n">
-        <v>684300.8545409901</v>
+        <v>684300.8545409907</v>
       </c>
       <c r="L2" t="n">
-        <v>684300.85454099</v>
+        <v>684300.8545409904</v>
       </c>
       <c r="M2" t="n">
         <v>684300.8545409902</v>
       </c>
       <c r="N2" t="n">
-        <v>684300.8545409905</v>
+        <v>684300.8545409902</v>
       </c>
       <c r="O2" t="n">
-        <v>684300.8545409904</v>
+        <v>684300.8545409899</v>
       </c>
       <c r="P2" t="n">
-        <v>684300.8545409902</v>
+        <v>684300.8545409903</v>
       </c>
     </row>
     <row r="3">
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145445</v>
+        <v>589967.8792145444</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26377,7 +26377,7 @@
         <v>525160.0364768959</v>
       </c>
       <c r="F3" t="n">
-        <v>1.797263848857256e-10</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26386,10 +26386,10 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>3.42310613632435e-10</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.219192593</v>
+        <v>176423.2191925931</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26426,40 +26426,40 @@
         <v>165632.8677865244</v>
       </c>
       <c r="E4" t="n">
-        <v>22174.60758687077</v>
+        <v>22174.60758687076</v>
       </c>
       <c r="F4" t="n">
-        <v>22174.60758687071</v>
+        <v>22174.6075868708</v>
       </c>
       <c r="G4" t="n">
-        <v>22174.60758687071</v>
+        <v>22174.60758687078</v>
       </c>
       <c r="H4" t="n">
-        <v>22174.60758687071</v>
+        <v>22174.60758687072</v>
       </c>
       <c r="I4" t="n">
-        <v>22174.60758687071</v>
+        <v>22174.6075868707</v>
       </c>
       <c r="J4" t="n">
-        <v>22174.60758687071</v>
+        <v>22174.60758687064</v>
       </c>
       <c r="K4" t="n">
-        <v>22174.60758687071</v>
+        <v>22174.6075868707</v>
       </c>
       <c r="L4" t="n">
-        <v>22174.60758687071</v>
+        <v>22174.6075868707</v>
       </c>
       <c r="M4" t="n">
-        <v>22174.60758687071</v>
+        <v>22174.6075868707</v>
       </c>
       <c r="N4" t="n">
-        <v>22174.60758687071</v>
+        <v>22174.6075868707</v>
       </c>
       <c r="O4" t="n">
         <v>22174.6075868707</v>
       </c>
       <c r="P4" t="n">
-        <v>22174.60758687071</v>
+        <v>22174.6075868707</v>
       </c>
     </row>
     <row r="5">
@@ -26472,19 +26472,19 @@
         <v>82859.07806340946</v>
       </c>
       <c r="C5" t="n">
-        <v>82859.07806340947</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340947</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871661</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871661</v>
       </c>
       <c r="G5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871661</v>
       </c>
       <c r="H5" t="n">
         <v>91987.32594871662</v>
@@ -26493,10 +26493,10 @@
         <v>91987.32594871664</v>
       </c>
       <c r="J5" t="n">
+        <v>91987.32594871667</v>
+      </c>
+      <c r="K5" t="n">
         <v>91987.32594871664</v>
-      </c>
-      <c r="K5" t="n">
-        <v>91987.32594871662</v>
       </c>
       <c r="L5" t="n">
         <v>91987.32594871664</v>
@@ -26508,7 +26508,7 @@
         <v>91987.32594871664</v>
       </c>
       <c r="O5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="P5" t="n">
         <v>91987.32594871664</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-120048.2764332306</v>
+        <v>-120048.2764332303</v>
       </c>
       <c r="C6" t="n">
-        <v>469919.6027813139</v>
+        <v>469919.6027813136</v>
       </c>
       <c r="D6" t="n">
-        <v>469919.6027813141</v>
+        <v>469919.6027813138</v>
       </c>
       <c r="E6" t="n">
-        <v>44004.29326878538</v>
+        <v>44881.42540253453</v>
       </c>
       <c r="F6" t="n">
-        <v>569164.329745681</v>
+        <v>570041.4618794307</v>
       </c>
       <c r="G6" t="n">
-        <v>569164.3297456813</v>
+        <v>570041.4618794309</v>
       </c>
       <c r="H6" t="n">
-        <v>569164.3297456814</v>
+        <v>570041.4618794309</v>
       </c>
       <c r="I6" t="n">
-        <v>569164.3297456809</v>
+        <v>570041.4618794302</v>
       </c>
       <c r="J6" t="n">
-        <v>392741.1105530884</v>
+        <v>393618.2426868377</v>
       </c>
       <c r="K6" t="n">
-        <v>569164.3297456811</v>
+        <v>570041.4618794314</v>
       </c>
       <c r="L6" t="n">
-        <v>569164.329745681</v>
+        <v>570041.461879431</v>
       </c>
       <c r="M6" t="n">
-        <v>434363.3145118442</v>
+        <v>435240.4466455937</v>
       </c>
       <c r="N6" t="n">
-        <v>569164.3297456816</v>
+        <v>570041.4618794308</v>
       </c>
       <c r="O6" t="n">
-        <v>569164.3297456815</v>
+        <v>570041.4618794305</v>
       </c>
       <c r="P6" t="n">
-        <v>569164.3297456813</v>
+        <v>570041.4618794309</v>
       </c>
     </row>
   </sheetData>
@@ -26737,49 +26737,49 @@
         </is>
       </c>
       <c r="B3" t="n">
+        <v>377.7436642170866</v>
+      </c>
+      <c r="C3" t="n">
+        <v>377.7436642170866</v>
+      </c>
+      <c r="D3" t="n">
         <v>377.7436642170867</v>
-      </c>
-      <c r="C3" t="n">
-        <v>377.7436642170867</v>
-      </c>
-      <c r="D3" t="n">
-        <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
         <v>830.3824054541001</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541001</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541005</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541005</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541005</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541005</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541005</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541005</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541005</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541005</v>
       </c>
     </row>
     <row r="4">
@@ -26792,10 +26792,10 @@
         <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26813,7 +26813,7 @@
         <v>1215.213643253573</v>
       </c>
       <c r="J4" t="n">
-        <v>1215.213643253573</v>
+        <v>1215.213643253574</v>
       </c>
       <c r="K4" t="n">
         <v>1215.213643253573</v>
@@ -26959,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26971,7 +26971,7 @@
         <v>452.6387412370134</v>
       </c>
       <c r="F3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26980,7 +26980,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990174</v>
+        <v>540.9263704990173</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545561</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990174</v>
+        <v>540.9263704990173</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990174</v>
+        <v>540.9263704990173</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27536,10 +27536,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>141.9938968421883</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>107.5829646831825</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -27548,7 +27548,7 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27560,7 +27560,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27584,7 +27584,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
@@ -27621,16 +27621,16 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>249.8413964654212</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
@@ -27663,7 +27663,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
@@ -27672,19 +27672,19 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>44.47535211858258</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27797,7 +27797,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27818,10 +27818,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -27839,10 +27839,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>198.2516768029394</v>
       </c>
       <c r="Y7" t="n">
-        <v>123.9289676594879</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27858,10 +27858,10 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>245.2407793169696</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>375.9469818809424</v>
       </c>
       <c r="F8" t="n">
         <v>400</v>
@@ -27909,7 +27909,7 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -28016,16 +28016,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>89.58101666090499</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
         <v>156.1708888417951</v>
@@ -28034,7 +28034,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28058,7 +28058,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -28076,10 +28076,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>190.6011478832355</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28146,10 +28146,10 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>9.663381206337363e-13</v>
       </c>
       <c r="V11" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -28338,7 +28338,7 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>1.800799509510398e-12</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -28614,7 +28614,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -29295,7 +29295,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>-1.534772309241816e-12</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -31047,19 +31047,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L2" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31074,13 +31074,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31120,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I3" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31147,22 +31147,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,16 +31199,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31223,16 +31223,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31284,19 +31284,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L5" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31311,13 +31311,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31357,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I6" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31384,22 +31384,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,16 +31436,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31460,16 +31460,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31521,19 +31521,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
@@ -31548,13 +31548,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31594,16 +31594,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31621,22 +31621,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,16 +31673,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I10" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K10" t="n">
         <v>79.14039391302239</v>
@@ -31697,16 +31697,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P10" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444943</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K14" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041487</v>
       </c>
       <c r="L14" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304438</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565517</v>
       </c>
       <c r="N14" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927184</v>
       </c>
       <c r="O14" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540884</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946991</v>
       </c>
       <c r="Q14" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647495</v>
       </c>
       <c r="R14" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446477</v>
       </c>
       <c r="S14" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104647</v>
       </c>
       <c r="T14" t="n">
-        <v>14.61306122562944</v>
+        <v>14.61306122562943</v>
       </c>
       <c r="U14" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354892</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,46 +32068,46 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H15" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386725</v>
       </c>
       <c r="I15" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127062</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K15" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622981</v>
       </c>
       <c r="L15" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358983</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724844</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813462</v>
+        <v>464.536285481346</v>
       </c>
       <c r="O15" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855524</v>
       </c>
       <c r="P15" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458548</v>
       </c>
       <c r="Q15" t="n">
         <v>227.9948068710956</v>
       </c>
       <c r="R15" t="n">
-        <v>110.8952201095118</v>
+        <v>110.8952201095117</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677463</v>
       </c>
       <c r="T15" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361487</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32153,43 +32153,43 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I16" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298628</v>
       </c>
       <c r="J16" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K16" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557933</v>
       </c>
       <c r="L16" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196123</v>
       </c>
       <c r="M16" t="n">
-        <v>234.7259642171319</v>
+        <v>234.7259642171318</v>
       </c>
       <c r="N16" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O16" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065631</v>
       </c>
       <c r="P16" t="n">
-        <v>181.1050413469073</v>
+        <v>181.1050413469072</v>
       </c>
       <c r="Q16" t="n">
         <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337667</v>
       </c>
       <c r="S16" t="n">
-        <v>26.09578805336901</v>
+        <v>26.095788053369</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892243</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351812</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32229,46 +32229,46 @@
         <v>3.338220725443616</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444943</v>
       </c>
       <c r="I17" t="n">
         <v>128.6967545176651</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K17" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041487</v>
       </c>
       <c r="L17" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304438</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565517</v>
       </c>
       <c r="N17" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927184</v>
       </c>
       <c r="O17" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540884</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946991</v>
       </c>
       <c r="Q17" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647495</v>
       </c>
       <c r="R17" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446477</v>
       </c>
       <c r="S17" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104647</v>
       </c>
       <c r="T17" t="n">
-        <v>14.61306122562944</v>
+        <v>14.61306122562943</v>
       </c>
       <c r="U17" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354892</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32308,43 +32308,43 @@
         <v>1.786105551354102</v>
       </c>
       <c r="H18" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386725</v>
       </c>
       <c r="I18" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127062</v>
       </c>
       <c r="J18" t="n">
         <v>168.7478056215733</v>
       </c>
       <c r="K18" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622981</v>
       </c>
       <c r="L18" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358983</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724844</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813461</v>
+        <v>464.536285481346</v>
       </c>
       <c r="O18" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855524</v>
       </c>
       <c r="P18" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458548</v>
       </c>
       <c r="Q18" t="n">
         <v>227.9948068710956</v>
       </c>
       <c r="R18" t="n">
-        <v>110.8952201095118</v>
+        <v>110.8952201095117</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677463</v>
       </c>
       <c r="T18" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361487</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32390,43 +32390,43 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I19" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298628</v>
       </c>
       <c r="J19" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K19" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557933</v>
       </c>
       <c r="L19" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196123</v>
       </c>
       <c r="M19" t="n">
-        <v>234.7259642171319</v>
+        <v>234.7259642171318</v>
       </c>
       <c r="N19" t="n">
         <v>229.144705426375</v>
       </c>
       <c r="O19" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065631</v>
       </c>
       <c r="P19" t="n">
-        <v>181.1050413469073</v>
+        <v>181.1050413469072</v>
       </c>
       <c r="Q19" t="n">
         <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337667</v>
       </c>
       <c r="S19" t="n">
-        <v>26.09578805336901</v>
+        <v>26.095788053369</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892243</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351812</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32472,40 +32472,40 @@
         <v>128.6967545176651</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K20" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041487</v>
       </c>
       <c r="L20" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304439</v>
       </c>
       <c r="M20" t="n">
         <v>586.1623499565518</v>
       </c>
       <c r="N20" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927185</v>
       </c>
       <c r="O20" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540885</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946991</v>
       </c>
       <c r="Q20" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647495</v>
       </c>
       <c r="R20" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446477</v>
       </c>
       <c r="S20" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104647</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U20" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354892</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32545,10 +32545,10 @@
         <v>1.786105551354102</v>
       </c>
       <c r="H21" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386725</v>
       </c>
       <c r="I21" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127063</v>
       </c>
       <c r="J21" t="n">
         <v>168.7478056215733</v>
@@ -32557,7 +32557,7 @@
         <v>288.4168775622982</v>
       </c>
       <c r="L21" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358984</v>
       </c>
       <c r="M21" t="n">
         <v>452.5584109724845</v>
@@ -32566,10 +32566,10 @@
         <v>464.5362854813461</v>
       </c>
       <c r="O21" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855525</v>
       </c>
       <c r="P21" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458548</v>
       </c>
       <c r="Q21" t="n">
         <v>227.9948068710956</v>
@@ -32581,7 +32581,7 @@
         <v>33.17612723677464</v>
       </c>
       <c r="T21" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361488</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32627,7 +32627,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I22" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298629</v>
       </c>
       <c r="J22" t="n">
         <v>105.8669502822383</v>
@@ -32645,7 +32645,7 @@
         <v>229.144705426375</v>
       </c>
       <c r="O22" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065631</v>
       </c>
       <c r="P22" t="n">
         <v>181.1050413469073</v>
@@ -32657,10 +32657,10 @@
         <v>67.32903897337668</v>
       </c>
       <c r="S22" t="n">
-        <v>26.09578805336901</v>
+        <v>26.095788053369</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892244</v>
       </c>
       <c r="U22" t="n">
         <v>0.08167695791351813</v>
@@ -32700,10 +32700,10 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I23" t="n">
         <v>128.6967545176652</v>
@@ -32712,37 +32712,37 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K23" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L23" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N23" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O23" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946994</v>
       </c>
       <c r="Q23" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R23" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U23" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32785,31 +32785,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I24" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J24" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K24" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L24" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O24" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P24" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q24" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R24" t="n">
         <v>110.8952201095118</v>
@@ -32818,7 +32818,7 @@
         <v>33.17612723677465</v>
       </c>
       <c r="T24" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361492</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32858,49 +32858,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H25" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I25" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J25" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K25" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L25" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M25" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N25" t="n">
         <v>229.1447054263751</v>
       </c>
       <c r="O25" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P25" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q25" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R25" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S25" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351817</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,10 +32937,10 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I26" t="n">
         <v>128.6967545176652</v>
@@ -32949,37 +32949,37 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K26" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L26" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N26" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O26" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946994</v>
       </c>
       <c r="Q26" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R26" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U26" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33022,31 +33022,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I27" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J27" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K27" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L27" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O27" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P27" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q27" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R27" t="n">
         <v>110.8952201095118</v>
@@ -33055,7 +33055,7 @@
         <v>33.17612723677465</v>
       </c>
       <c r="T27" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361492</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33095,49 +33095,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H28" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I28" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J28" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K28" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L28" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M28" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N28" t="n">
         <v>229.1447054263751</v>
       </c>
       <c r="O28" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P28" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q28" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R28" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S28" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351817</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,49 +33174,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K29" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L29" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N29" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O29" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946994</v>
       </c>
       <c r="Q29" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R29" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U29" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33253,46 +33253,46 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H30" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I30" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J30" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K30" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L30" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O30" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P30" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q30" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R30" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T30" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361492</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33332,49 +33332,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H31" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I31" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J31" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K31" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L31" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M31" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N31" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O31" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P31" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q31" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R31" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S31" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351817</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,10 +33411,10 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I32" t="n">
         <v>128.6967545176652</v>
@@ -33423,37 +33423,37 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K32" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L32" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N32" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O32" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946994</v>
       </c>
       <c r="Q32" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R32" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U32" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33496,31 +33496,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I33" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J33" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K33" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L33" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O33" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P33" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q33" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R33" t="n">
         <v>110.8952201095118</v>
@@ -33529,7 +33529,7 @@
         <v>33.17612723677465</v>
       </c>
       <c r="T33" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361492</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33569,49 +33569,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H34" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I34" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J34" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K34" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L34" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M34" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N34" t="n">
         <v>229.1447054263751</v>
       </c>
       <c r="O34" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P34" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q34" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R34" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S34" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351817</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,10 +33648,10 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I35" t="n">
         <v>128.6967545176652</v>
@@ -33660,37 +33660,37 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K35" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L35" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N35" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O35" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946994</v>
       </c>
       <c r="Q35" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R35" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U35" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33733,31 +33733,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I36" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J36" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K36" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L36" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O36" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P36" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q36" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R36" t="n">
         <v>110.8952201095118</v>
@@ -33766,7 +33766,7 @@
         <v>33.17612723677465</v>
       </c>
       <c r="T36" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361492</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33806,49 +33806,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H37" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I37" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J37" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K37" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L37" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M37" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N37" t="n">
         <v>229.1447054263751</v>
       </c>
       <c r="O37" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P37" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q37" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R37" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S37" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351817</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,10 +33885,10 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I38" t="n">
         <v>128.6967545176652</v>
@@ -33897,37 +33897,37 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K38" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L38" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N38" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O38" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946994</v>
       </c>
       <c r="Q38" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R38" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U38" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33970,31 +33970,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I39" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J39" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K39" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L39" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O39" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P39" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q39" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R39" t="n">
         <v>110.8952201095118</v>
@@ -34003,7 +34003,7 @@
         <v>33.17612723677465</v>
       </c>
       <c r="T39" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361492</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34043,49 +34043,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H40" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I40" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J40" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K40" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L40" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M40" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N40" t="n">
         <v>229.1447054263751</v>
       </c>
       <c r="O40" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P40" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q40" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R40" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S40" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351817</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,10 +34122,10 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I41" t="n">
         <v>128.6967545176652</v>
@@ -34134,37 +34134,37 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K41" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L41" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N41" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O41" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946994</v>
       </c>
       <c r="Q41" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R41" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U41" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34207,31 +34207,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I42" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J42" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K42" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L42" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O42" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P42" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q42" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R42" t="n">
         <v>110.8952201095118</v>
@@ -34240,7 +34240,7 @@
         <v>33.17612723677465</v>
       </c>
       <c r="T42" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361492</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34280,49 +34280,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H43" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I43" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J43" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K43" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L43" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M43" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N43" t="n">
         <v>229.1447054263751</v>
       </c>
       <c r="O43" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P43" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q43" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R43" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S43" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351817</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,10 +34359,10 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I44" t="n">
         <v>128.6967545176652</v>
@@ -34371,37 +34371,37 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K44" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L44" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N44" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O44" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946994</v>
       </c>
       <c r="Q44" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R44" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U44" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34444,31 +34444,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I45" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J45" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K45" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L45" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O45" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P45" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q45" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R45" t="n">
         <v>110.8952201095118</v>
@@ -34477,7 +34477,7 @@
         <v>33.17612723677465</v>
       </c>
       <c r="T45" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361492</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34517,49 +34517,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H46" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I46" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J46" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K46" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L46" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M46" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N46" t="n">
         <v>229.1447054263751</v>
       </c>
       <c r="O46" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P46" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q46" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R46" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S46" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351817</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34698,19 +34698,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K2" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34777,7 +34777,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.01733575770692</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34789,16 +34789,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>54.37527471535575</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34935,19 +34935,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K5" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35014,7 +35014,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35026,16 +35026,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
-        <v>401.1632560839191</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535667</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35172,19 +35172,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O8" t="n">
         <v>406.5635087530452</v>
@@ -35251,7 +35251,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35263,16 +35263,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245898</v>
+        <v>325.1459203262123</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q9" t="n">
-        <v>54.37527471535667</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35491,16 +35491,16 @@
         <v>41.91017895490663</v>
       </c>
       <c r="K12" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L12" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560242</v>
       </c>
       <c r="M12" t="n">
-        <v>310.4243770504661</v>
+        <v>776.129440800466</v>
       </c>
       <c r="N12" t="n">
-        <v>586.9317337484878</v>
+        <v>756.5322523145259</v>
       </c>
       <c r="O12" t="n">
         <v>282.3637022411081</v>
@@ -35646,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K14" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L14" t="n">
-        <v>708.6910667109072</v>
+        <v>708.691066710907</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221115</v>
       </c>
       <c r="N14" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081116</v>
       </c>
       <c r="O14" t="n">
-        <v>713.1546070951472</v>
+        <v>713.154607095147</v>
       </c>
       <c r="P14" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109121</v>
       </c>
       <c r="Q14" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502047</v>
       </c>
       <c r="R14" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349802</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>137.9476282330536</v>
+        <v>41.91017895490663</v>
       </c>
       <c r="K15" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879391</v>
       </c>
       <c r="L15" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560242</v>
       </c>
       <c r="M15" t="n">
-        <v>310.4243770504663</v>
+        <v>776.129440800466</v>
       </c>
       <c r="N15" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980127</v>
       </c>
       <c r="O15" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P15" t="n">
-        <v>525.5561835714618</v>
+        <v>236.5687745713078</v>
       </c>
       <c r="Q15" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507405</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556549</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L16" t="n">
         <v>250.2141868799285</v>
       </c>
       <c r="M16" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789724</v>
       </c>
       <c r="N16" t="n">
         <v>273.2768778056036</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187476</v>
+        <v>39.2256999718747</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35883,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K17" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L17" t="n">
-        <v>708.6910667109072</v>
+        <v>708.691066710907</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221115</v>
       </c>
       <c r="N17" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081116</v>
       </c>
       <c r="O17" t="n">
-        <v>713.1546070951472</v>
+        <v>713.154607095147</v>
       </c>
       <c r="P17" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109121</v>
       </c>
       <c r="Q17" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502047</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349802</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490663</v>
       </c>
       <c r="K18" t="n">
-        <v>384.9870895382561</v>
+        <v>150.5754385879391</v>
       </c>
       <c r="L18" t="n">
-        <v>249.2577049560243</v>
+        <v>278.7330645958075</v>
       </c>
       <c r="M18" t="n">
-        <v>310.4243770504662</v>
+        <v>776.129440800466</v>
       </c>
       <c r="N18" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980127</v>
       </c>
       <c r="O18" t="n">
-        <v>282.3637022411081</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P18" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315245</v>
       </c>
       <c r="Q18" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507405</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36041,7 +36041,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556549</v>
       </c>
       <c r="K19" t="n">
         <v>151.7024285299105</v>
@@ -36050,7 +36050,7 @@
         <v>250.2141868799285</v>
       </c>
       <c r="M19" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789724</v>
       </c>
       <c r="N19" t="n">
         <v>273.2768778056036</v>
@@ -36062,7 +36062,7 @@
         <v>178.3836006118007</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187475</v>
+        <v>39.2256999718747</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36120,31 +36120,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415088</v>
       </c>
       <c r="K20" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L20" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109071</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N20" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081117</v>
       </c>
       <c r="O20" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951471</v>
       </c>
       <c r="P20" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109122</v>
       </c>
       <c r="Q20" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502047</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349805</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490663</v>
       </c>
       <c r="K21" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L21" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560242</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504662</v>
+        <v>720.1247453734254</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980128</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O21" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P21" t="n">
-        <v>495.5025975092001</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q21" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507407</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36278,7 +36278,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556552</v>
+        <v>12.5077701655655</v>
       </c>
       <c r="K22" t="n">
         <v>151.7024285299105</v>
@@ -36287,7 +36287,7 @@
         <v>250.2141868799285</v>
       </c>
       <c r="M22" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789724</v>
       </c>
       <c r="N22" t="n">
         <v>273.2768778056036</v>
@@ -36299,7 +36299,7 @@
         <v>178.3836006118007</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187472</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36357,31 +36357,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941508</v>
       </c>
       <c r="K23" t="n">
         <v>528.6897561303331</v>
       </c>
       <c r="L23" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N23" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O23" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P23" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q23" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R23" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349816</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36436,28 +36436,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>168.0012142953155</v>
+        <v>168.0012142953156</v>
       </c>
       <c r="K24" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L24" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N24" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980131</v>
       </c>
       <c r="O24" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411083</v>
       </c>
       <c r="P24" t="n">
-        <v>495.5025975091999</v>
+        <v>495.5025975091992</v>
       </c>
       <c r="Q24" t="n">
-        <v>298.0903205209232</v>
+        <v>298.0903205209233</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36515,19 +36515,19 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556556</v>
       </c>
       <c r="K25" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L25" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M25" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N25" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O25" t="n">
         <v>236.2373515206029</v>
@@ -36536,7 +36536,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187479</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36594,31 +36594,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941508</v>
       </c>
       <c r="K26" t="n">
         <v>528.6897561303331</v>
       </c>
       <c r="L26" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N26" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O26" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P26" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q26" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349816</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36673,28 +36673,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>168.0012142953155</v>
+        <v>168.0012142953156</v>
       </c>
       <c r="K27" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L27" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N27" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980131</v>
       </c>
       <c r="O27" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411083</v>
       </c>
       <c r="P27" t="n">
-        <v>495.5025975091999</v>
+        <v>495.5025975091992</v>
       </c>
       <c r="Q27" t="n">
-        <v>298.0903205209232</v>
+        <v>298.0903205209233</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36752,19 +36752,19 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556556</v>
       </c>
       <c r="K28" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L28" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M28" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N28" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O28" t="n">
         <v>236.2373515206029</v>
@@ -36773,7 +36773,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187479</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36831,31 +36831,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415063</v>
       </c>
       <c r="K29" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L29" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N29" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O29" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P29" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q29" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349816</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36910,28 +36910,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>168.0012142953155</v>
+        <v>168.0012142953156</v>
       </c>
       <c r="K30" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879393</v>
       </c>
       <c r="L30" t="n">
-        <v>249.2577049560243</v>
+        <v>483.6693559063401</v>
       </c>
       <c r="M30" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N30" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980131</v>
       </c>
       <c r="O30" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411083</v>
       </c>
       <c r="P30" t="n">
-        <v>495.5025975092001</v>
+        <v>525.5561835714619</v>
       </c>
       <c r="Q30" t="n">
-        <v>298.0903205209232</v>
+        <v>298.0903205209233</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36989,28 +36989,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556556</v>
       </c>
       <c r="K31" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L31" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M31" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N31" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O31" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P31" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q31" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187479</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37068,31 +37068,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941508</v>
       </c>
       <c r="K32" t="n">
         <v>528.6897561303331</v>
       </c>
       <c r="L32" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221117</v>
+        <v>805.32965022211</v>
       </c>
       <c r="N32" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O32" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P32" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q32" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R32" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349816</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37147,28 +37147,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>168.0012142953155</v>
+        <v>168.0012142953156</v>
       </c>
       <c r="K33" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L33" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M33" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N33" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980131</v>
       </c>
       <c r="O33" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411083</v>
       </c>
       <c r="P33" t="n">
-        <v>495.5025975091999</v>
+        <v>495.5025975091992</v>
       </c>
       <c r="Q33" t="n">
-        <v>298.0903205209232</v>
+        <v>298.0903205209233</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37226,19 +37226,19 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556556</v>
       </c>
       <c r="K34" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L34" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M34" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N34" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O34" t="n">
         <v>236.2373515206029</v>
@@ -37247,7 +37247,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q34" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187479</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37305,31 +37305,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941508</v>
       </c>
       <c r="K35" t="n">
         <v>528.6897561303331</v>
       </c>
       <c r="L35" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N35" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O35" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P35" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q35" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R35" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349674</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37384,28 +37384,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>168.0012142953155</v>
+        <v>168.0012142953156</v>
       </c>
       <c r="K36" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L36" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M36" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N36" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980131</v>
       </c>
       <c r="O36" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411083</v>
       </c>
       <c r="P36" t="n">
-        <v>495.5025975091999</v>
+        <v>495.5025975091992</v>
       </c>
       <c r="Q36" t="n">
-        <v>298.0903205209232</v>
+        <v>298.0903205209233</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37463,19 +37463,19 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556556</v>
       </c>
       <c r="K37" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L37" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M37" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N37" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O37" t="n">
         <v>236.2373515206029</v>
@@ -37484,7 +37484,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q37" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187479</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37542,31 +37542,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941508</v>
       </c>
       <c r="K38" t="n">
         <v>528.6897561303331</v>
       </c>
       <c r="L38" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N38" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O38" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P38" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q38" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R38" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349674</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37621,28 +37621,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>168.0012142953155</v>
+        <v>168.0012142953156</v>
       </c>
       <c r="K39" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L39" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N39" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980131</v>
       </c>
       <c r="O39" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411083</v>
       </c>
       <c r="P39" t="n">
-        <v>495.5025975091999</v>
+        <v>495.5025975091992</v>
       </c>
       <c r="Q39" t="n">
-        <v>298.0903205209232</v>
+        <v>298.0903205209233</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37700,19 +37700,19 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556556</v>
       </c>
       <c r="K40" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L40" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M40" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N40" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O40" t="n">
         <v>236.2373515206029</v>
@@ -37721,7 +37721,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q40" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187479</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37779,31 +37779,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941508</v>
       </c>
       <c r="K41" t="n">
         <v>528.6897561303331</v>
       </c>
       <c r="L41" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N41" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O41" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P41" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q41" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349582</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37858,28 +37858,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490674</v>
       </c>
       <c r="K42" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879393</v>
       </c>
       <c r="L42" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504663</v>
+        <v>720.1247453734238</v>
       </c>
       <c r="N42" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415666</v>
       </c>
       <c r="O42" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411083</v>
       </c>
       <c r="P42" t="n">
-        <v>495.5025975091999</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q42" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507419</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37937,19 +37937,19 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556556</v>
       </c>
       <c r="K43" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L43" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M43" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N43" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O43" t="n">
         <v>236.2373515206029</v>
@@ -37958,7 +37958,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q43" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187479</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38016,31 +38016,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941508</v>
       </c>
       <c r="K44" t="n">
         <v>528.6897561303331</v>
       </c>
       <c r="L44" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221116</v>
+        <v>805.32965022211</v>
       </c>
       <c r="N44" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O44" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P44" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q44" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R44" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349816</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38095,28 +38095,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>168.0012142953155</v>
+        <v>168.0012142953156</v>
       </c>
       <c r="K45" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L45" t="n">
-        <v>249.2577049560243</v>
+        <v>537.6668875336987</v>
       </c>
       <c r="M45" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N45" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980131</v>
       </c>
       <c r="O45" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411083</v>
       </c>
       <c r="P45" t="n">
-        <v>495.5025975091999</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q45" t="n">
-        <v>298.0903205209232</v>
+        <v>298.0903205209233</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38174,19 +38174,19 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556556</v>
       </c>
       <c r="K46" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L46" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M46" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N46" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O46" t="n">
         <v>236.2373515206029</v>
@@ -38195,7 +38195,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q46" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187479</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
